--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -306,12 +306,6 @@
     <t>molybdenum trioxide</t>
   </si>
   <si>
-    <t>market for nickel, 99.5%</t>
-  </si>
-  <si>
-    <t>nickel, 99.5%</t>
-  </si>
-  <si>
     <t>market for portafer</t>
   </si>
   <si>
@@ -368,6 +362,12 @@
   </si>
   <si>
     <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>market for nickel, class 1</t>
+  </si>
+  <si>
+    <t>nickel, class 1</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H759"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <f>250/1000</f>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33">
         <f>250/1000</f>
@@ -1189,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <f>250/1000</f>
@@ -1444,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69">
         <f>250/1000</f>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>1.6910012049805864E-6</v>
@@ -2690,12 +2690,12 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B132">
         <v>2.6029999999999999E-6</v>
@@ -2713,12 +2713,12 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B133">
         <v>3.9999999999999998E-7</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B136">
         <v>7.35751288389381E-6</v>
@@ -2805,12 +2805,12 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B137">
         <v>3.095E-6</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -2856,7 +2856,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B139">
         <v>3.2659798657742239E-2</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3602,7 +3602,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B174">
         <v>1.7456639888883143E-6</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B178">
         <v>1.6910012049805864E-6</v>
@@ -3712,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B179">
         <v>2.6029999999999999E-6</v>
@@ -3735,12 +3735,12 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B180">
         <v>3.9999999999999998E-7</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B183">
         <v>7.35751288389381E-6</v>
@@ -3827,12 +3827,12 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B184">
         <v>3.095E-6</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B186">
         <v>3.2105382134671748E-2</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B206">
         <v>1.6910012049805864E-6</v>
@@ -4247,12 +4247,12 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B207">
         <v>2.6029999999999999E-6</v>
@@ -4270,12 +4270,12 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B208">
         <v>3.9999999999999998E-7</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -4344,7 +4344,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B211">
         <v>7.35751288389381E-6</v>
@@ -4362,12 +4362,12 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B212">
         <v>3.095E-6</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -4413,7 +4413,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B214">
         <v>3.2671074618388279E-2</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B232">
         <v>2.3642079843686714E-6</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -4814,7 +4814,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B236">
         <v>1.6910012049805864E-6</v>
@@ -4832,12 +4832,12 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B237">
         <v>2.6029999999999999E-6</v>
@@ -4855,12 +4855,12 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B238">
         <v>3.9999999999999998E-7</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B241">
         <v>7.35751288389381E-6</v>
@@ -4947,12 +4947,12 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B242">
         <v>3.095E-6</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B244">
         <v>3.267116725616355E-2</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B553102-9C72-E648-8B24-F8F9B9AD1229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$606</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$667</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -300,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,20 +684,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -692,10 +703,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,7 +714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -711,7 +722,7 @@
         <v>1.3108706331708271</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -719,7 +730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -727,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -735,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -743,12 +754,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -774,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -797,7 +808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -817,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -837,7 +848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -857,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -877,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -897,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -917,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -937,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -957,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -977,7 +988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1037,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1137,7 +1148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1177,7 +1188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1243,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1427,7 +1438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>1.2903504392436329</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1605,12 +1616,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -1763,7 +1774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -1867,7 +1878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -1893,7 +1904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1971,7 +1982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2049,7 +2060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>56</v>
       </c>
@@ -2153,7 +2164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -2242,7 +2253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -2334,7 +2345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +2368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -2449,7 +2460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -2541,7 +2552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -2603,7 +2614,7 @@
         <v>1.3068429847355314</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2627,12 +2638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -2658,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f>B96</f>
         <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
@@ -2682,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2708,7 +2719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>67</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>69</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -2915,7 +2926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>73</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>75</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -3030,7 +3041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>77</v>
       </c>
@@ -3053,7 +3064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -3122,11 +3133,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -3142,7 +3153,7 @@
         <v>1.3068466902465423</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3158,7 +3169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3166,12 +3177,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3197,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f>B124</f>
         <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
@@ -3221,7 +3232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>49</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>57</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -3339,7 +3350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>63</v>
       </c>
@@ -3385,7 +3396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>67</v>
       </c>
@@ -3454,7 +3465,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>69</v>
       </c>
@@ -3477,7 +3488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>71</v>
       </c>
@@ -3500,7 +3511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>73</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>75</v>
       </c>
@@ -3569,7 +3580,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -3592,7 +3603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -3615,7 +3626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -3638,7 +3649,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>81</v>
       </c>
@@ -3707,275 +3718,276 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
     </row>
-    <row r="193" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="221" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
     </row>
-    <row r="229" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="240" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
     </row>
-    <row r="265" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="293" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
     </row>
-    <row r="297" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B297" s="2"/>
     </row>
-    <row r="301" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
     </row>
-    <row r="303" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
     </row>
-    <row r="320" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
     </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="2"/>
     </row>
-    <row r="337" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
     </row>
-    <row r="339" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
     </row>
-    <row r="355" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
     </row>
-    <row r="366" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
     </row>
-    <row r="373" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
     </row>
-    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
     </row>
-    <row r="391" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
     </row>
-    <row r="403" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
     </row>
-    <row r="410" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
     </row>
-    <row r="425" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
     </row>
-    <row r="432" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="437" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
     </row>
-    <row r="444" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
     </row>
-    <row r="452" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
     </row>
-    <row r="459" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
     </row>
-    <row r="468" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
     </row>
-    <row r="475" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
     </row>
-    <row r="482" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
     </row>
-    <row r="489" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
     </row>
-    <row r="502" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
     </row>
-    <row r="509" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
     </row>
-    <row r="526" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
     </row>
-    <row r="531" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
     </row>
-    <row r="538" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
     </row>
-    <row r="548" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
     </row>
-    <row r="555" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="566" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
     </row>
-    <row r="573" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
     </row>
-    <row r="589" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
     </row>
-    <row r="596" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
     </row>
-    <row r="608" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
     </row>
-    <row r="615" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
     </row>
-    <row r="623" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
     </row>
-    <row r="629" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
     </row>
-    <row r="635" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
     </row>
-    <row r="641" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
     </row>
-    <row r="661" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
     </row>
-    <row r="667" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H667" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B553102-9C72-E648-8B24-F8F9B9AD1229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E8903-ACE1-0C46-82CB-3195CE2077EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$667</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$670</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="92">
   <si>
     <t>technosphere</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Exchanges</t>
   </si>
   <si>
-    <t>worksheet name</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -685,9 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H667"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -700,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -708,15 +713,15 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1.3108706331708271</v>
@@ -727,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -735,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -748,10 +753,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -776,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -787,16 +792,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -805,421 +810,421 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>3.0676551327453981E-8</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>4.6014826991180967E-6</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1.2270911966962279E-5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>3.067655132745397E-10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2.1474168801179165E-5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>8.9222937864716503</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>6.4421923531576096E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>9.2032568342168839E-10</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>6.135601701471486E-5</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>5.4912367481653793E-4</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>3.0676551327453975E-7</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>3.6814193080790292E-5</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>6.1356017014714845E-7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>1.6872686102061067E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>0.38038158908113223</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1228,41 +1233,41 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1274,18 +1279,18 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1297,18 +1302,18 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>2.54628E-9</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1320,18 +1325,18 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>2.796E-5</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1343,18 +1348,18 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>1.668E-5</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1366,18 +1371,18 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1389,18 +1394,18 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1412,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -1435,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -1458,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>7.5384135551020997</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1481,18 +1486,18 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -1504,18 +1509,18 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1527,66 +1532,67 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>-1.2333113635208772</v>
       </c>
       <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <f>3.91917583892907*1.17</f>
+        <v>4.5854357315470118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>81</v>
-      </c>
-      <c r="B47">
-        <v>3.9191758389290685</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>1.2903504392436329</v>
@@ -1597,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1605,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,655 +1622,640 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="E56" t="s">
-        <v>1</v>
-      </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>2.803301033677894E-8</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>39</v>
-      </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>4.2049515505168402E-6</v>
+        <v>2.803301033677894E-8</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>1.1213470456299422E-5</v>
+        <v>4.2049515505168402E-6</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>2.8033010336778933E-10</v>
+        <v>1.1213470456299422E-5</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>1.9623639878920949E-5</v>
+        <v>2.8033010336778933E-10</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>2.6104586734695769</v>
+        <v>1.9623639878920949E-5</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>5.8870386993587143E-5</v>
+        <v>2.6104586734695769</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64">
-        <v>2.8033010336778938E-6</v>
+        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>2.8033010336778938E-6</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66">
-        <v>8.4101694226215283E-10</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67">
-        <v>5.6068683889436346E-5</v>
+        <v>8.4101694226215283E-10</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>5.0180313582138397E-4</v>
+        <v>5.6068683889436346E-5</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B69">
-        <v>2.8033010336778935E-7</v>
+        <v>5.0180313582138397E-4</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>5.6068683889436342E-6</v>
+        <v>2.8033010336778935E-7</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71">
-        <v>3.3641742976837502E-5</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72">
-        <v>5.6068683889436342E-6</v>
+        <v>3.3641742976837502E-5</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73">
-        <v>5.6068683889436334E-7</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74">
-        <v>1.5418688328404109E-5</v>
+        <v>5.6068683889436334E-7</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>5.6068683889436342E-6</v>
+        <v>1.5418688328404109E-5</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76">
-        <v>0.38033800779618782</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77">
+        <v>0.38033800779618782</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
         <v>32</v>
       </c>
-      <c r="B77">
-        <v>6.1611670196058146</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
       <c r="G77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B78">
-        <v>5.347707144163827E-10</v>
+        <v>6.1611670196058146</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>5.3272799999999989E-4</v>
+        <v>5.347707144163827E-10</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -2273,18 +2264,18 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81">
-        <v>3.6239999999999997E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -2296,18 +2287,18 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B82">
-        <v>2.0947967866659771E-4</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -2319,64 +2310,64 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>2.54628E-9</v>
+        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B84">
-        <v>2.796E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B85">
-        <v>1.668E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -2388,18 +2379,18 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B86">
-        <v>2.0292014459767036E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -2411,18 +2402,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>3.1235999999999997E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2434,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B88">
-        <v>4.8000000000000001E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>1</v>
@@ -2457,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B89">
-        <v>1.1591999999999998E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
         <v>1</v>
@@ -2480,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>7.5375498599112571</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
@@ -2503,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B91">
-        <v>8.8290154606725723E-4</v>
+        <v>7.5375498599112571</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
@@ -2526,18 +2517,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92">
-        <v>3.7140000000000003E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2549,303 +2540,289 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B93">
-        <v>-0.56116062779246523</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>3.8526458561606098</v>
+        <v>-0.56116062779246523</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97">
-        <v>1.3068429847355314</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <f>3.85264585616061*1.17</f>
+        <v>4.5075956517079137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>1.3068429847355314</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>11</v>
+      <c r="B101" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="str">
-        <f>B96</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>B97</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
         <v>29</v>
-      </c>
-      <c r="B104">
-        <v>8.9868381043588528</v>
-      </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B106">
-        <v>0.38041197561668283</v>
+        <v>8.9868381043588528</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B107">
-        <v>5.3487471618165237E-10</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B108">
-        <v>5.3272799999999989E-4</v>
+        <v>0.38041197561668283</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B109">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="s">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B110">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
         <v>1</v>
@@ -2854,41 +2831,41 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B111">
-        <v>2.54628E-9</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B112">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -2900,41 +2877,41 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B113">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" t="s">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B114">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2946,18 +2923,18 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B115">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2969,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B116">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
         <v>1</v>
@@ -2992,18 +2969,18 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B117">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -3015,18 +2992,18 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B118">
-        <v>7.5390157563601576</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3038,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B119">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
@@ -3061,21 +3038,21 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B120">
-        <v>3.7140000000000003E-4</v>
+        <v>7.5390157563601576</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
         <v>1</v>
@@ -3084,307 +3061,293 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B121">
-        <v>-0.61975263847726747</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>-0.61975263847726747</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <f>3.92052895420659*1.17</f>
+        <v>4.5870188764217099</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
         <v>81</v>
       </c>
-      <c r="B122">
-        <v>3.9205289542065938</v>
-      </c>
-      <c r="C122" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125">
-        <v>1.3068466902465423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" t="s">
-        <v>16</v>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B127">
+        <v>1.3068466902465423</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="str">
-        <f>B124</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
-      <c r="D131" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>29</v>
-      </c>
-      <c r="B132">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>31</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s">
-        <v>31</v>
+      <c r="A131" t="s">
+        <v>90</v>
+      </c>
+      <c r="B131" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133">
-        <v>2.9996721816189444E-3</v>
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>57</v>
+      <c r="A134" t="str">
+        <f>B126</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
       </c>
       <c r="B134">
-        <v>0.38041305426253447</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B135">
-        <v>8.3442634742423714</v>
+        <v>0.58838389214647391</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
       </c>
+      <c r="F135" t="s">
+        <v>38</v>
+      </c>
       <c r="G135" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B136">
-        <v>5.3487623280160849E-10</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H136" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B137">
-        <v>5.3272799999999989E-4</v>
+        <v>0.38041305426253447</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B138">
-        <v>3.6000000000000001E-5</v>
+        <v>8.3442634742423714</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>1</v>
@@ -3393,44 +3356,44 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B139">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G139" t="s">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B140">
-        <v>2.8370495812424056E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E140" t="s">
         <v>1</v>
@@ -3439,41 +3402,41 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B141">
-        <v>2.54628E-9</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G141" t="s">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B142">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -3485,18 +3448,18 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B143">
-        <v>1.668E-5</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -3508,41 +3471,41 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B144">
-        <v>2.0292014459767036E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G144" t="s">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B145">
-        <v>3.1235999999999997E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -3554,21 +3517,21 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B146">
-        <v>4.8000000000000001E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>1</v>
@@ -3577,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B147">
-        <v>1.1591999999999998E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -3600,21 +3563,21 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B148">
-        <v>7.5390371329954711</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
         <v>1</v>
@@ -3623,21 +3586,21 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B149">
-        <v>8.8290154606725723E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
         <v>1</v>
@@ -3646,18 +3609,18 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B150">
-        <v>3.7140000000000003E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -3669,325 +3632,395 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>-0.10151390957570747</v>
+        <v>7.5390371329954711</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G151" t="s">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>-0.10151390957570747</v>
+      </c>
+      <c r="C154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155">
+        <f>3.92054007073963*1.17</f>
+        <v>4.5870318827653671</v>
+      </c>
+      <c r="C155" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
         <v>81</v>
       </c>
-      <c r="B152">
-        <v>3.9205400707396261</v>
-      </c>
-      <c r="C152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="2"/>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B189" s="2"/>
-    </row>
-    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="2"/>
-      <c r="G195" s="2"/>
-    </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
+      <c r="A179" s="1"/>
+    </row>
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
-      <c r="G215" s="2"/>
-    </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B225" s="2"/>
-    </row>
-    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="2"/>
-      <c r="G231" s="2"/>
-    </row>
-    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
+      <c r="A215" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="2"/>
-      <c r="G251" s="2"/>
-    </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-    </row>
-    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B261" s="2"/>
-    </row>
-    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2"/>
-      <c r="G267" s="2"/>
-    </row>
-    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-    </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="2"/>
-      <c r="G287" s="2"/>
-    </row>
-    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-    </row>
-    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B297" s="2"/>
-    </row>
-    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="2"/>
-      <c r="G303" s="2"/>
-    </row>
-    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-    </row>
-    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A320" s="1"/>
+      <c r="A251" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+    </row>
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="2"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+    </row>
+    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
     </row>
     <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A323" s="2"/>
-      <c r="G323" s="2"/>
-    </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-    </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B333" s="2"/>
-    </row>
-    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A339" s="2"/>
-      <c r="G339" s="2"/>
-    </row>
-    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-    </row>
-    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-    </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-    </row>
-    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-    </row>
-    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-    </row>
-    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-    </row>
-    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A468" s="1"/>
-      <c r="B468" s="1"/>
-    </row>
-    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A482" s="1"/>
-      <c r="B482" s="1"/>
-    </row>
-    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
-    </row>
-    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A519" s="1"/>
-      <c r="B519" s="1"/>
-    </row>
-    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A531" s="1"/>
-      <c r="B531" s="1"/>
-    </row>
-    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-      <c r="B548" s="1"/>
-    </row>
-    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
-    </row>
-    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A589" s="1"/>
-      <c r="B589" s="1"/>
-    </row>
-    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A608" s="1"/>
-      <c r="B608" s="1"/>
-    </row>
-    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A623" s="1"/>
-      <c r="B623" s="1"/>
-    </row>
-    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A635" s="1"/>
-      <c r="B635" s="1"/>
-    </row>
-    <row r="641" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
-    </row>
-    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A667" s="1"/>
+      <c r="A323" s="1"/>
+    </row>
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+    </row>
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="2"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+    </row>
+    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+    </row>
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+    </row>
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+    </row>
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+    </row>
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+    </row>
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+    </row>
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+    </row>
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+    </row>
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+    </row>
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+    </row>
+    <row r="599" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+    </row>
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+    </row>
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+    </row>
+    <row r="644" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
+    </row>
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H667" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H670" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E8903-ACE1-0C46-82CB-3195CE2077EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172C5C1-102F-B548-9548-8AC4A8B6880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1563,8 +1563,8 @@
         <v>80</v>
       </c>
       <c r="B47">
-        <f>3.91917583892907*1.17</f>
-        <v>4.5854357315470118</v>
+        <f>(B4*120)/36</f>
+        <v>4.3695687772360907</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -2594,8 +2594,8 @@
         <v>80</v>
       </c>
       <c r="B95">
-        <f>3.85264585616061*1.17</f>
-        <v>4.5075956517079137</v>
+        <f>(B50*120)/36</f>
+        <v>4.3011681308121101</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -3138,8 +3138,8 @@
         <v>80</v>
       </c>
       <c r="B124">
-        <f>3.92052895420659*1.17</f>
-        <v>4.5870188764217099</v>
+        <f>(B98*120)/36</f>
+        <v>4.3561432824517716</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
@@ -3732,8 +3732,8 @@
         <v>80</v>
       </c>
       <c r="B155">
-        <f>3.92054007073963*1.17</f>
-        <v>4.5870318827653671</v>
+        <f>(B127*120)/36</f>
+        <v>4.3561556341551411</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172C5C1-102F-B548-9548-8AC4A8B6880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDB30E-EF91-6443-94A3-467778885578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:H670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B553102-9C72-E648-8B24-F8F9B9AD1229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDB30E-EF91-6443-94A3-467778885578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$667</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$670</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="92">
   <si>
     <t>technosphere</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Exchanges</t>
   </si>
   <si>
-    <t>worksheet name</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -685,9 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H667"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -700,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -708,15 +713,15 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1.3108706331708271</v>
@@ -727,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -735,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -748,10 +753,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -776,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -787,16 +792,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -805,421 +810,421 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>3.0676551327453981E-8</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>4.6014826991180967E-6</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1.2270911966962279E-5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>3.067655132745397E-10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2.1474168801179165E-5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>8.9222937864716503</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>6.4421923531576096E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>9.2032568342168839E-10</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>6.135601701471486E-5</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>5.4912367481653793E-4</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>3.0676551327453975E-7</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>3.6814193080790292E-5</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>6.1356017014714845E-7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>1.6872686102061067E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>0.38038158908113223</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1228,41 +1233,41 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1274,18 +1279,18 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1297,18 +1302,18 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>2.54628E-9</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1320,18 +1325,18 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>2.796E-5</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1343,18 +1348,18 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>1.668E-5</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1366,18 +1371,18 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1389,18 +1394,18 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1412,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -1435,18 +1440,18 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -1458,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>7.5384135551020997</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1481,18 +1486,18 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -1504,18 +1509,18 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1527,66 +1532,67 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>-1.2333113635208772</v>
       </c>
       <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <f>(B4*120)/36</f>
+        <v>4.3695687772360907</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>81</v>
-      </c>
-      <c r="B47">
-        <v>3.9191758389290685</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>1.2903504392436329</v>
@@ -1597,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1605,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,655 +1622,640 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
         <v>23</v>
       </c>
-      <c r="E56" t="s">
-        <v>1</v>
-      </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>2.803301033677894E-8</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>39</v>
-      </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>4.2049515505168402E-6</v>
+        <v>2.803301033677894E-8</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>1.1213470456299422E-5</v>
+        <v>4.2049515505168402E-6</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>2.8033010336778933E-10</v>
+        <v>1.1213470456299422E-5</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>1.9623639878920949E-5</v>
+        <v>2.8033010336778933E-10</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>2.6104586734695769</v>
+        <v>1.9623639878920949E-5</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>5.8870386993587143E-5</v>
+        <v>2.6104586734695769</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64">
-        <v>2.8033010336778938E-6</v>
+        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>2.8033010336778938E-6</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66">
-        <v>8.4101694226215283E-10</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67">
-        <v>5.6068683889436346E-5</v>
+        <v>8.4101694226215283E-10</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>5.0180313582138397E-4</v>
+        <v>5.6068683889436346E-5</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B69">
-        <v>2.8033010336778935E-7</v>
+        <v>5.0180313582138397E-4</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>5.6068683889436342E-6</v>
+        <v>2.8033010336778935E-7</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71">
-        <v>3.3641742976837502E-5</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72">
-        <v>5.6068683889436342E-6</v>
+        <v>3.3641742976837502E-5</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73">
-        <v>5.6068683889436334E-7</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74">
-        <v>1.5418688328404109E-5</v>
+        <v>5.6068683889436334E-7</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>5.6068683889436342E-6</v>
+        <v>1.5418688328404109E-5</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76">
-        <v>0.38033800779618782</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77">
+        <v>0.38033800779618782</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
         <v>32</v>
       </c>
-      <c r="B77">
-        <v>6.1611670196058146</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
       <c r="G77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B78">
-        <v>5.347707144163827E-10</v>
+        <v>6.1611670196058146</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>5.3272799999999989E-4</v>
+        <v>5.347707144163827E-10</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -2273,18 +2264,18 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81">
-        <v>3.6239999999999997E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -2296,18 +2287,18 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B82">
-        <v>2.0947967866659771E-4</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -2319,64 +2310,64 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>2.54628E-9</v>
+        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B84">
-        <v>2.796E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B85">
-        <v>1.668E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -2388,18 +2379,18 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B86">
-        <v>2.0292014459767036E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -2411,18 +2402,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>3.1235999999999997E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2434,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B88">
-        <v>4.8000000000000001E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>1</v>
@@ -2457,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B89">
-        <v>1.1591999999999998E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
         <v>1</v>
@@ -2480,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>7.5375498599112571</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
@@ -2503,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B91">
-        <v>8.8290154606725723E-4</v>
+        <v>7.5375498599112571</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
@@ -2526,18 +2517,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92">
-        <v>3.7140000000000003E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2549,303 +2540,289 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B93">
-        <v>-0.56116062779246523</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>3.8526458561606098</v>
+        <v>-0.56116062779246523</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97">
-        <v>1.3068429847355314</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <f>(B50*120)/36</f>
+        <v>4.3011681308121101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>1.3068429847355314</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>11</v>
+      <c r="B101" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="str">
-        <f>B96</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>B97</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
         <v>29</v>
-      </c>
-      <c r="B104">
-        <v>8.9868381043588528</v>
-      </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B106">
-        <v>0.38041197561668283</v>
+        <v>8.9868381043588528</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B107">
-        <v>5.3487471618165237E-10</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B108">
-        <v>5.3272799999999989E-4</v>
+        <v>0.38041197561668283</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B109">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="s">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B110">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
         <v>1</v>
@@ -2854,41 +2831,41 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B111">
-        <v>2.54628E-9</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B112">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -2900,41 +2877,41 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B113">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" t="s">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B114">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2946,18 +2923,18 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B115">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2969,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B116">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
         <v>1</v>
@@ -2992,18 +2969,18 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B117">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -3015,18 +2992,18 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B118">
-        <v>7.5390157563601576</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3038,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B119">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
@@ -3061,21 +3038,21 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B120">
-        <v>3.7140000000000003E-4</v>
+        <v>7.5390157563601576</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
         <v>1</v>
@@ -3084,307 +3061,293 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B121">
-        <v>-0.61975263847726747</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>-0.61975263847726747</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <f>(B98*120)/36</f>
+        <v>4.3561432824517716</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
         <v>81</v>
       </c>
-      <c r="B122">
-        <v>3.9205289542065938</v>
-      </c>
-      <c r="C122" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125">
-        <v>1.3068466902465423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" t="s">
-        <v>16</v>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B127">
+        <v>1.3068466902465423</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="str">
-        <f>B124</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
-      <c r="D131" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>29</v>
-      </c>
-      <c r="B132">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>31</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>39</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s">
-        <v>31</v>
+      <c r="A131" t="s">
+        <v>90</v>
+      </c>
+      <c r="B131" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133">
-        <v>2.9996721816189444E-3</v>
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>57</v>
+      <c r="A134" t="str">
+        <f>B126</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
       </c>
       <c r="B134">
-        <v>0.38041305426253447</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B135">
-        <v>8.3442634742423714</v>
+        <v>0.58838389214647391</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
       </c>
+      <c r="F135" t="s">
+        <v>38</v>
+      </c>
       <c r="G135" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B136">
-        <v>5.3487623280160849E-10</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H136" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B137">
-        <v>5.3272799999999989E-4</v>
+        <v>0.38041305426253447</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B138">
-        <v>3.6000000000000001E-5</v>
+        <v>8.3442634742423714</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>1</v>
@@ -3393,44 +3356,44 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B139">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G139" t="s">
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B140">
-        <v>2.8370495812424056E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E140" t="s">
         <v>1</v>
@@ -3439,41 +3402,41 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B141">
-        <v>2.54628E-9</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G141" t="s">
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B142">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -3485,18 +3448,18 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B143">
-        <v>1.668E-5</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -3508,41 +3471,41 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B144">
-        <v>2.0292014459767036E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G144" t="s">
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B145">
-        <v>3.1235999999999997E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -3554,21 +3517,21 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B146">
-        <v>4.8000000000000001E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>1</v>
@@ -3577,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B147">
-        <v>1.1591999999999998E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -3600,21 +3563,21 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B148">
-        <v>7.5390371329954711</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
         <v>1</v>
@@ -3623,21 +3586,21 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B149">
-        <v>8.8290154606725723E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
         <v>1</v>
@@ -3646,18 +3609,18 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B150">
-        <v>3.7140000000000003E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -3669,325 +3632,395 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>-0.10151390957570747</v>
+        <v>7.5390371329954711</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G151" t="s">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>-0.10151390957570747</v>
+      </c>
+      <c r="C154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155">
+        <f>(B127*120)/36</f>
+        <v>4.3561556341551411</v>
+      </c>
+      <c r="C155" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
         <v>81</v>
       </c>
-      <c r="B152">
-        <v>3.9205400707396261</v>
-      </c>
-      <c r="C152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="2"/>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B189" s="2"/>
-    </row>
-    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="2"/>
-      <c r="G195" s="2"/>
-    </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="212" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
+      <c r="A179" s="1"/>
+    </row>
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
-      <c r="G215" s="2"/>
-    </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="225" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B225" s="2"/>
-    </row>
-    <row r="229" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="231" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="2"/>
-      <c r="G231" s="2"/>
-    </row>
-    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-    </row>
-    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
+      <c r="A215" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="2"/>
-      <c r="G251" s="2"/>
-    </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-    </row>
-    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B261" s="2"/>
-    </row>
-    <row r="265" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2"/>
-      <c r="G267" s="2"/>
-    </row>
-    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-    </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="2"/>
-      <c r="G287" s="2"/>
-    </row>
-    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-    </row>
-    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B297" s="2"/>
-    </row>
-    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="303" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="2"/>
-      <c r="G303" s="2"/>
-    </row>
-    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-    </row>
-    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A320" s="1"/>
+      <c r="A251" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+    </row>
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+    </row>
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="2"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+    </row>
+    <row r="300" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
     </row>
     <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A323" s="2"/>
-      <c r="G323" s="2"/>
-    </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-    </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B333" s="2"/>
-    </row>
-    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A339" s="2"/>
-      <c r="G339" s="2"/>
-    </row>
-    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-    </row>
-    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-    </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-    </row>
-    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-    </row>
-    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-    </row>
-    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-    </row>
-    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A468" s="1"/>
-      <c r="B468" s="1"/>
-    </row>
-    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A482" s="1"/>
-      <c r="B482" s="1"/>
-    </row>
-    <row r="489" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="502" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
-    </row>
-    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="519" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A519" s="1"/>
-      <c r="B519" s="1"/>
-    </row>
-    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A531" s="1"/>
-      <c r="B531" s="1"/>
-    </row>
-    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-      <c r="B548" s="1"/>
-    </row>
-    <row r="555" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
-    </row>
-    <row r="573" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="589" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A589" s="1"/>
-      <c r="B589" s="1"/>
-    </row>
-    <row r="596" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="608" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A608" s="1"/>
-      <c r="B608" s="1"/>
-    </row>
-    <row r="615" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A623" s="1"/>
-      <c r="B623" s="1"/>
-    </row>
-    <row r="629" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="635" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A635" s="1"/>
-      <c r="B635" s="1"/>
-    </row>
-    <row r="641" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="661" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
-    </row>
-    <row r="667" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A667" s="1"/>
+      <c r="A323" s="1"/>
+    </row>
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+    </row>
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="2"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+    </row>
+    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+    </row>
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+    </row>
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+    </row>
+    <row r="478" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+    </row>
+    <row r="492" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="505" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+    </row>
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="522" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+    </row>
+    <row r="529" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+    </row>
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="551" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+    </row>
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+    </row>
+    <row r="576" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="592" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+    </row>
+    <row r="599" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+    </row>
+    <row r="618" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+    </row>
+    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+    </row>
+    <row r="644" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="664" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
+    </row>
+    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H667" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H670" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDB30E-EF91-6443-94A3-467778885578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4B9AF-D726-3649-8291-3A0335884FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34020" yWindow="-660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$670</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,9 +124,6 @@
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -716,12 +716,12 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1.3108706331708271</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,10 +753,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -792,13 +792,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -810,12 +810,12 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>3.0676551327453981E-8</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>4.6014826991180967E-6</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>1.2270911966962279E-5</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>3.067655132745397E-10</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>2.1474168801179165E-5</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>6.4421923531576096E-5</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>3.0676551327453981E-6</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>9.2032568342168839E-10</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>6.135601701471486E-5</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>5.4912367481653793E-4</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>3.0676551327453975E-7</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>6.135601701471486E-6</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>3.6814193080790292E-5</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>6.135601701471486E-6</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>6.1356017014714845E-7</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1.6872686102061067E-5</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>6.135601701471486E-6</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>0.38038158908113223</v>
@@ -1207,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>5.3483199147628007E-10</v>
@@ -1233,12 +1233,12 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>5.3272799999999989E-4</v>
@@ -1247,21 +1247,21 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>3.6000000000000001E-5</v>
@@ -1279,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>3.6239999999999997E-4</v>
@@ -1302,12 +1302,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>2.54628E-9</v>
@@ -1325,12 +1325,12 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37">
         <v>2.796E-5</v>
@@ -1348,12 +1348,12 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>1.668E-5</v>
@@ -1371,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>2.0292014459767036E-4</v>
@@ -1394,12 +1394,12 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>3.1235999999999997E-4</v>
@@ -1417,12 +1417,12 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41">
         <v>4.8000000000000001E-5</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>8.8290154606725723E-4</v>
@@ -1509,12 +1509,12 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <v>3.7140000000000003E-4</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <f>(B4*120)/36</f>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1587,12 +1587,12 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>1.2903504392436329</v>
@@ -1611,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1624,10 +1624,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
         <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1663,13 +1663,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1681,12 +1681,12 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>2.803301033677894E-8</v>
@@ -1695,24 +1695,24 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>4.2049515505168402E-6</v>
@@ -1721,24 +1721,24 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>1.1213470456299422E-5</v>
@@ -1747,24 +1747,24 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61">
         <v>2.8033010336778933E-10</v>
@@ -1773,24 +1773,24 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>1.9623639878920949E-5</v>
@@ -1799,19 +1799,19 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -1825,24 +1825,24 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>5.8870386993587143E-5</v>
@@ -1851,24 +1851,24 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>2.8033010336778938E-6</v>
@@ -1877,24 +1877,24 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>2.8033010336778938E-6</v>
@@ -1903,24 +1903,24 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>8.4101694226215283E-10</v>
@@ -1929,24 +1929,24 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>5.6068683889436346E-5</v>
@@ -1955,24 +1955,24 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>5.0180313582138397E-4</v>
@@ -1981,24 +1981,24 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>2.8033010336778935E-7</v>
@@ -2007,24 +2007,24 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>5.6068683889436342E-6</v>
@@ -2033,24 +2033,24 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>3.3641742976837502E-5</v>
@@ -2059,24 +2059,24 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>5.6068683889436342E-6</v>
@@ -2085,24 +2085,24 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <v>5.6068683889436334E-7</v>
@@ -2111,24 +2111,24 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>1.5418688328404109E-5</v>
@@ -2137,24 +2137,24 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>5.6068683889436342E-6</v>
@@ -2163,24 +2163,24 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>0.38033800779618782</v>
@@ -2192,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>6.1611670196058146</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79">
         <v>5.347707144163827E-10</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -2241,41 +2241,41 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>60</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -2287,18 +2287,18 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -2310,18 +2310,18 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>2.0947967866659771E-4</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -2333,18 +2333,18 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84">
         <v>2.54628E-9</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -2356,18 +2356,18 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85">
         <v>2.796E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -2379,18 +2379,18 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86">
         <v>1.668E-5</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -2402,18 +2402,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2425,18 +2425,18 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
@@ -2448,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2482,7 +2482,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>7.5375498599112571</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
         <v>-0.56116062779246523</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -2591,14 +2591,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <f>(B50*120)/36</f>
         <v>4.3011681308121101</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2618,12 +2618,12 @@
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B98">
         <v>1.3068429847355314</v>
@@ -2642,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
         <v>90</v>
-      </c>
-      <c r="B102" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2713,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -2727,24 +2727,24 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>26</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107">
         <v>2.9996721816189444E-3</v>
@@ -2753,24 +2753,24 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108">
         <v>0.38041197561668283</v>
@@ -2782,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>26</v>
@@ -2790,13 +2790,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B109">
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -2808,41 +2808,41 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>60</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B111">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
@@ -2854,18 +2854,18 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B112">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -2877,18 +2877,18 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113">
         <v>2.54628E-9</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114">
         <v>2.796E-5</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2923,18 +2923,18 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B115">
         <v>1.668E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2946,18 +2946,18 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B116">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2969,18 +2969,18 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B117">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -2992,18 +2992,18 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>7.5390157563601576</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -3084,18 +3084,18 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>-0.61975263847726747</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -3135,14 +3135,14 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124">
         <f>(B98*120)/36</f>
         <v>4.3561432824517716</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3166,12 +3166,12 @@
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127">
         <v>1.3068466902465423</v>
@@ -3190,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,10 +3203,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" t="s">
         <v>90</v>
-      </c>
-      <c r="B131" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -3261,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -3275,24 +3275,24 @@
         <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B136">
         <v>2.9996721816189444E-3</v>
@@ -3301,24 +3301,24 @@
         <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>26</v>
       </c>
       <c r="H136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137">
         <v>0.38041305426253447</v>
@@ -3330,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>26</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138">
         <v>8.3442634742423714</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
@@ -3356,18 +3356,18 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B139">
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
@@ -3379,41 +3379,41 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>60</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B141">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -3425,18 +3425,18 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -3448,18 +3448,18 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B143">
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -3471,18 +3471,18 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B144">
         <v>2.54628E-9</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
@@ -3494,18 +3494,18 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B145">
         <v>2.796E-5</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -3517,18 +3517,18 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B146">
         <v>1.668E-5</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -3563,18 +3563,18 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3586,18 +3586,18 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B149">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -3643,7 +3643,7 @@
         <v>7.5390371329954711</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -3660,13 +3660,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B152">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
@@ -3678,18 +3678,18 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B153">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>-0.10151390957570747</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -3729,14 +3729,14 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B155">
         <f>(B127*120)/36</f>
         <v>4.3561556341551411</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4B9AF-D726-3649-8291-3A0335884FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240CC57-F460-714C-AD02-694A7D5A1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="-660" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$670</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -127,9 +127,6 @@
     <t/>
   </si>
   <si>
-    <t>CO2 storage/at H2 production plant, pre, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>natural resource::in water</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -716,12 +716,12 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1.3108706331708271</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,10 +753,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -792,13 +792,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -810,12 +810,12 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>3.0676551327453981E-8</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>4.6014826991180967E-6</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1.2270911966962279E-5</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>3.067655132745397E-10</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>2.1474168801179165E-5</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>6.4421923531576096E-5</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>3.0676551327453981E-6</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>9.2032568342168839E-10</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>6.135601701471486E-5</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>5.4912367481653793E-4</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>3.0676551327453975E-7</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>6.135601701471486E-6</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>3.6814193080790292E-5</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>6.135601701471486E-6</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>6.1356017014714845E-7</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>1.6872686102061067E-5</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>6.135601701471486E-6</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>0.38038158908113223</v>
@@ -1207,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>5.3483199147628007E-10</v>
@@ -1233,12 +1233,12 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>5.3272799999999989E-4</v>
@@ -1247,21 +1247,21 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>3.6000000000000001E-5</v>
@@ -1279,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35">
         <v>3.6239999999999997E-4</v>
@@ -1302,12 +1302,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>2.54628E-9</v>
@@ -1325,12 +1325,12 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>2.796E-5</v>
@@ -1348,12 +1348,12 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>1.668E-5</v>
@@ -1371,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>2.0292014459767036E-4</v>
@@ -1394,12 +1394,12 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>3.1235999999999997E-4</v>
@@ -1417,12 +1417,12 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>4.8000000000000001E-5</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>8.8290154606725723E-4</v>
@@ -1509,12 +1509,12 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45">
         <v>3.7140000000000003E-4</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <f>(B4*120)/36</f>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1587,12 +1587,12 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50">
         <v>1.2903504392436329</v>
@@ -1611,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1624,10 +1624,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1663,13 +1663,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1681,12 +1681,12 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>2.803301033677894E-8</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>4.2049515505168402E-6</v>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>1.1213470456299422E-5</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>2.8033010336778933E-10</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>1.9623639878920949E-5</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64">
         <v>5.8870386993587143E-5</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65">
         <v>2.8033010336778938E-6</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66">
         <v>2.8033010336778938E-6</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>8.4101694226215283E-10</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68">
         <v>5.6068683889436346E-5</v>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69">
         <v>5.0180313582138397E-4</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <v>2.8033010336778935E-7</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>5.6068683889436342E-6</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>3.3641742976837502E-5</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>5.6068683889436342E-6</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>5.6068683889436334E-7</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>1.5418688328404109E-5</v>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>5.6068683889436342E-6</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>0.38033800779618782</v>
@@ -2192,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>6.1611670196058146</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>5.347707144163827E-10</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -2241,41 +2241,41 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>59</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -2287,18 +2287,18 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -2310,18 +2310,18 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>2.0947967866659771E-4</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -2333,18 +2333,18 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84">
         <v>2.54628E-9</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -2356,18 +2356,18 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85">
         <v>2.796E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -2379,18 +2379,18 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>1.668E-5</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -2402,18 +2402,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2425,18 +2425,18 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
@@ -2448,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2482,7 +2482,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>7.5375498599112571</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
         <v>-0.56116062779246523</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -2591,14 +2591,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B95">
         <f>(B50*120)/36</f>
         <v>4.3011681308121101</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2618,12 +2618,12 @@
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98">
         <v>1.3068429847355314</v>
@@ -2642,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
         <v>89</v>
-      </c>
-      <c r="B102" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2713,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>26</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B107">
         <v>2.9996721816189444E-3</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>26</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B108">
         <v>0.38041197561668283</v>
@@ -2782,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>26</v>
@@ -2790,13 +2790,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B109">
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -2808,41 +2808,41 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B110">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>59</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
@@ -2854,18 +2854,18 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B112">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -2877,18 +2877,18 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B113">
         <v>2.54628E-9</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114">
         <v>2.796E-5</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2923,18 +2923,18 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115">
         <v>1.668E-5</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2946,18 +2946,18 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B116">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2969,18 +2969,18 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B117">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -2992,18 +2992,18 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B118">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>7.5390157563601576</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B121">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -3084,18 +3084,18 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>-0.61975263847726747</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -3135,14 +3135,14 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124">
         <f>(B98*120)/36</f>
         <v>4.3561432824517716</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3166,12 +3166,12 @@
         <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127">
         <v>1.3068466902465423</v>
@@ -3190,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,10 +3203,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" t="s">
         <v>89</v>
-      </c>
-      <c r="B131" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -3261,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>26</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B136">
         <v>2.9996721816189444E-3</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>26</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B137">
         <v>0.38041305426253447</v>
@@ -3330,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>26</v>
@@ -3338,13 +3338,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B138">
         <v>8.3442634742423714</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
@@ -3356,18 +3356,18 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139">
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
@@ -3379,41 +3379,41 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B140">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
         <v>59</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B141">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -3425,18 +3425,18 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B142">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -3448,18 +3448,18 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B143">
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -3471,18 +3471,18 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B144">
         <v>2.54628E-9</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
@@ -3494,18 +3494,18 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B145">
         <v>2.796E-5</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -3517,18 +3517,18 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B146">
         <v>1.668E-5</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -3563,18 +3563,18 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B148">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3586,18 +3586,18 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B149">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -3643,7 +3643,7 @@
         <v>7.5390371329954711</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -3660,13 +3660,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B152">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
@@ -3678,18 +3678,18 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B153">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>-0.10151390957570747</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -3729,14 +3729,14 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155">
         <f>(B127*120)/36</f>
         <v>4.3561556341551411</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240CC57-F460-714C-AD02-694A7D5A1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E1256-CDBD-7041-BA93-3BAAA875932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$670</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="B46">
-        <v>-1.2333113635208772</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -2571,7 +2571,7 @@
         <v>18</v>
       </c>
       <c r="B94">
-        <v>-0.56116062779246523</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -3115,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="B123">
-        <v>-0.61975263847726747</v>
+        <v>0</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
@@ -3709,7 +3709,7 @@
         <v>18</v>
       </c>
       <c r="B154">
-        <v>-0.10151390957570747</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
         <v>34</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E1256-CDBD-7041-BA93-3BAAA875932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D665F0-553C-B84D-AE46-B5064C4868D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33340" yWindow="400" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
-    <t>carbon dioxide storage at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
+    <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -690,13 +690,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA255B-FB2C-8947-AFAC-7B2FEFE1D0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3B42E-47F8-1040-BEA9-2726CB3DA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$676</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$678</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="96">
   <si>
     <t>technosphere</t>
   </si>
@@ -317,12 +317,21 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>Assumed 2.4 gallons (9.1 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
+  </si>
+  <si>
+    <t>Assumed 2.9 gallons (11 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,11 +384,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H676"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,7 +716,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -714,10 +724,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -725,7 +735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -733,7 +743,7 @@
         <v>1.3108706331708271</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -741,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -749,7 +759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -765,12 +775,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="H10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -819,7 +832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -839,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -859,7 +872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -879,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -899,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -919,7 +932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -939,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -959,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -979,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -999,7 +1012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1159,7 +1172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1199,11 +1212,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>0.38038158908113223</v>
       </c>
       <c r="C31" t="s">
@@ -1219,87 +1232,86 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31-B33</f>
+        <v>0.37129660508113221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4">
+        <f>(2.4/1000)*3.78541</f>
+        <v>9.0849839999999991E-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34">
-        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -1308,15 +1320,15 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>2.54628E-9</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1325,21 +1337,21 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1354,15 +1366,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1371,21 +1383,21 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1400,15 +1412,15 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1423,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B41">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -1446,15 +1458,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B42">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1469,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B43">
-        <v>7.5384135551020997</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1492,15 +1504,15 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1515,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>3.7140000000000003E-4</v>
+        <v>7.5384135551020997</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -1538,320 +1550,317 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>13</v>
       </c>
-      <c r="G46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>78</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <f>(B4*120)/36</f>
         <v>4.3695687772360907</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>21</v>
       </c>
-      <c r="G47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>33</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>1.2903504392436329</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>88</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>4</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F58" t="s">
         <v>23</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G58" t="s">
         <v>6</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>85</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>22</v>
       </c>
-      <c r="E57" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>3</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>35</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>2.803301033677894E-8</v>
       </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>37</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>4.2049515505168402E-6</v>
       </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>38</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>1.1213470456299422E-5</v>
       </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>39</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>2.8033010336778933E-10</v>
       </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>40</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>1.9623639878920949E-5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63">
-        <v>2.6104586734695769</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64">
-        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -1874,10 +1883,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>2.8033010336778938E-6</v>
+        <v>2.6104586734695769</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -1900,10 +1909,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>2.8033010336778938E-6</v>
+        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -1926,10 +1935,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67">
-        <v>8.4101694226215283E-10</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -1952,10 +1961,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>5.6068683889436346E-5</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -1978,10 +1987,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>5.0180313582138397E-4</v>
+        <v>8.4101694226215283E-10</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -2004,10 +2013,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70">
-        <v>2.8033010336778935E-7</v>
+        <v>5.6068683889436346E-5</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -2030,10 +2039,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71">
-        <v>5.6068683889436342E-6</v>
+        <v>5.0180313582138397E-4</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -2056,10 +2065,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>3.3641742976837502E-5</v>
+        <v>2.8033010336778935E-7</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -2082,7 +2091,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73">
         <v>5.6068683889436342E-6</v>
@@ -2108,10 +2117,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>5.6068683889436334E-7</v>
+        <v>3.3641742976837502E-5</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -2134,10 +2143,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B75">
-        <v>1.5418688328404109E-5</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -2160,10 +2169,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76">
-        <v>5.6068683889436342E-6</v>
+        <v>5.6068683889436334E-7</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -2186,50 +2195,62 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>0.38033800779618782</v>
+        <v>1.5418688328404109E-5</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B78">
-        <v>0.375</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B79">
-        <v>4.4999999999999997E-3</v>
+        <v>0.38033800779618782</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -2238,7 +2259,7 @@
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>26</v>
@@ -2246,125 +2267,124 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="4">
+        <f>B79-B81</f>
+        <v>0.3693603187961878</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="4">
+        <f>(2.9/1000)*3.78541</f>
+        <v>1.0977689000000001E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>91</v>
       </c>
-      <c r="B80">
+      <c r="B82">
         <v>6.1611670196058146</v>
       </c>
-      <c r="C80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>55</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>5.347707144163827E-10</v>
       </c>
-      <c r="C81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>4</v>
       </c>
-      <c r="G81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="B82">
+      <c r="B84">
         <v>5.3272799999999989E-4</v>
       </c>
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
         <v>58</v>
       </c>
-      <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>60</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84">
-        <v>3.6239999999999997E-4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85">
-        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
@@ -2379,15 +2399,15 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B86">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
@@ -2396,21 +2416,21 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B87">
-        <v>2.796E-5</v>
+        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
@@ -2425,15 +2445,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B88">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C88" t="s">
         <v>34</v>
@@ -2442,21 +2462,21 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B89">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C89" t="s">
         <v>34</v>
@@ -2471,15 +2491,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C90" t="s">
         <v>34</v>
@@ -2494,21 +2514,21 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B91">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C91" t="s">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
@@ -2517,15 +2537,15 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
@@ -2540,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B93">
-        <v>7.5375498599112571</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C93" t="s">
         <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>1</v>
@@ -2563,15 +2583,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -2586,280 +2606,289 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95">
+        <v>7.5375498599112571</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>76</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>3.7140000000000003E-4</v>
       </c>
-      <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
         <v>2</v>
       </c>
-      <c r="E95" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>18</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="G96" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G98" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>78</v>
       </c>
-      <c r="B97">
-        <f>(B50*120)/36</f>
+      <c r="B99">
+        <f>(B52*120)/36</f>
         <v>4.3011681308121101</v>
       </c>
-      <c r="C97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>21</v>
       </c>
-      <c r="G97" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G99" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>33</v>
       </c>
-      <c r="B100">
+      <c r="B102">
         <v>1.3068429847355314</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>5</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>4</v>
       </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>88</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>10</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>9</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>7</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E108" t="s">
         <v>4</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F108" t="s">
         <v>23</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G108" t="s">
         <v>6</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="str">
-        <f>B99</f>
+      <c r="I108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>B101</f>
         <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>15</v>
       </c>
-      <c r="E107" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
         <v>3</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H109" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>28</v>
       </c>
-      <c r="B108">
+      <c r="B110">
         <v>8.9868381043588528</v>
       </c>
-      <c r="C108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>46</v>
       </c>
-      <c r="B109">
+      <c r="B111">
         <v>2.9996721816189444E-3</v>
       </c>
-      <c r="C109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>54</v>
       </c>
-      <c r="B110">
+      <c r="B112">
         <v>0.38041197561668283</v>
-      </c>
-      <c r="C110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111">
-        <v>0.375</v>
-      </c>
-      <c r="C111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>92</v>
-      </c>
-      <c r="B112">
-        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -2868,110 +2897,109 @@
         <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="4">
+        <f>B112-B114</f>
+        <v>0.37132699161668281</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="4">
+        <f>(2.4/1000)*3.78541</f>
+        <v>9.0849839999999991E-3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>55</v>
       </c>
-      <c r="B113">
+      <c r="B115">
         <v>5.3487471618165237E-10</v>
       </c>
-      <c r="C113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
         <v>15</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E115" t="s">
         <v>4</v>
       </c>
-      <c r="G113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="G115" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>57</v>
       </c>
-      <c r="B114">
+      <c r="B116">
         <v>5.3272799999999989E-4</v>
       </c>
-      <c r="C114" t="s">
-        <v>34</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
         <v>58</v>
       </c>
-      <c r="E114" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>60</v>
       </c>
-      <c r="B115">
+      <c r="B117">
         <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116">
-        <v>3.6239999999999997E-4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117">
-        <v>2.54628E-9</v>
       </c>
       <c r="C117" t="s">
         <v>34</v>
@@ -2980,21 +3008,21 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B118">
-        <v>2.796E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
         <v>34</v>
@@ -3009,15 +3037,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B119">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
@@ -3026,21 +3054,21 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119" t="s">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B120">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -3055,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B121">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
@@ -3078,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B122">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>1</v>
@@ -3101,15 +3129,15 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B123">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
@@ -3124,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B124">
-        <v>7.5390157563601576</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
         <v>1</v>
@@ -3147,15 +3175,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
         <v>34</v>
@@ -3170,284 +3198,293 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126">
+        <v>7.5390157563601576</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>76</v>
       </c>
-      <c r="B126">
+      <c r="B128">
         <v>3.7140000000000003E-4</v>
       </c>
-      <c r="C126" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
         <v>2</v>
       </c>
-      <c r="E126" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>18</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
         <v>15</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E129" t="s">
         <v>13</v>
       </c>
-      <c r="G127" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="G129" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>78</v>
       </c>
-      <c r="B128">
-        <f>(B100*120)/36</f>
+      <c r="B130">
+        <f>(B102*120)/36</f>
         <v>4.3561432824517716</v>
       </c>
-      <c r="C128" t="s">
-        <v>34</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E130" t="s">
         <v>21</v>
       </c>
-      <c r="G128" t="s">
-        <v>0</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="G130" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>33</v>
       </c>
-      <c r="B131">
+      <c r="B133">
         <v>1.3068466902465423</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>5</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>4</v>
       </c>
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>88</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>10</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>8</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
         <v>7</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E139" t="s">
         <v>4</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F139" t="s">
         <v>23</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G139" t="s">
         <v>6</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="str">
-        <f>B130</f>
+      <c r="I139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="str">
+        <f>B132</f>
         <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>31</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D140" t="s">
         <v>15</v>
       </c>
-      <c r="E138" t="s">
-        <v>1</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
         <v>3</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H140" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>28</v>
       </c>
-      <c r="B139">
+      <c r="B141">
         <v>0.58838389214647391</v>
       </c>
-      <c r="C139" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>46</v>
       </c>
-      <c r="B140">
+      <c r="B142">
         <v>2.9996721816189444E-3</v>
       </c>
-      <c r="C140" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1</v>
-      </c>
-      <c r="F140" t="s">
-        <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
-      <c r="H140" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>54</v>
       </c>
-      <c r="B141">
+      <c r="B143">
         <v>0.38041305426253447</v>
-      </c>
-      <c r="C141" t="s">
-        <v>27</v>
-      </c>
-      <c r="E141" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142">
-        <v>0.375</v>
-      </c>
-      <c r="C142" t="s">
-        <v>27</v>
-      </c>
-      <c r="E142" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" t="s">
-        <v>93</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143">
-        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -3456,133 +3493,132 @@
         <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" s="4">
+        <f>B143-B145</f>
+        <v>0.36943536526253445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>93</v>
+      </c>
+      <c r="G144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" s="4">
+        <f>(2.9/1000)*3.78541</f>
+        <v>1.0977689000000001E-2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>91</v>
       </c>
-      <c r="B144">
+      <c r="B146">
         <v>8.3442634742423714</v>
       </c>
-      <c r="C144" t="s">
-        <v>34</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
         <v>15</v>
       </c>
-      <c r="E144" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" t="s">
-        <v>0</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>55</v>
       </c>
-      <c r="B145">
+      <c r="B147">
         <v>5.3487623280160849E-10</v>
       </c>
-      <c r="C145" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
         <v>15</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E147" t="s">
         <v>4</v>
       </c>
-      <c r="G145" t="s">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="G147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>57</v>
       </c>
-      <c r="B146">
+      <c r="B148">
         <v>5.3272799999999989E-4</v>
       </c>
-      <c r="C146" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
         <v>58</v>
       </c>
-      <c r="E146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="E148" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>60</v>
       </c>
-      <c r="B147">
+      <c r="B149">
         <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" t="s">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>62</v>
-      </c>
-      <c r="B148">
-        <v>3.6239999999999997E-4</v>
-      </c>
-      <c r="C148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" t="s">
-        <v>0</v>
-      </c>
-      <c r="H148" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149">
-        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C149" t="s">
         <v>34</v>
@@ -3597,15 +3633,15 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B150">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
@@ -3614,21 +3650,21 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B151">
-        <v>2.796E-5</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C151" t="s">
         <v>34</v>
@@ -3643,15 +3679,15 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B152">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
@@ -3660,21 +3696,21 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G152" t="s">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B153">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C153" t="s">
         <v>34</v>
@@ -3689,15 +3725,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B154">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C154" t="s">
         <v>34</v>
@@ -3712,21 +3748,21 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B155">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
         <v>1</v>
@@ -3735,15 +3771,15 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B156">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
@@ -3758,21 +3794,21 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B157">
-        <v>7.5390371329954711</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
         <v>1</v>
@@ -3781,15 +3817,15 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B158">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
@@ -3804,349 +3840,395 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159">
+        <v>7.5390371329954711</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159">
-        <v>3.7140000000000003E-4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
-        <v>0</v>
-      </c>
-      <c r="H159" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>34</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>78</v>
       </c>
-      <c r="B161">
-        <f>(B131*120)/36</f>
+      <c r="B163">
+        <f>(B133*120)/36</f>
         <v>4.3561556341551411</v>
       </c>
-      <c r="C161" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E163" t="s">
         <v>21</v>
       </c>
-      <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="G163" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B162" s="2"/>
-    </row>
-    <row r="166" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
+    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B164" s="2"/>
     </row>
     <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="2"/>
-      <c r="G168" s="2"/>
-    </row>
-    <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="185" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="2"/>
-      <c r="G188" s="2"/>
-    </row>
-    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B198" s="2"/>
-    </row>
-    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
+      <c r="A168" s="1"/>
+    </row>
+    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B200" s="2"/>
     </row>
     <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2"/>
-      <c r="G204" s="2"/>
-    </row>
-    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-    </row>
-    <row r="221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="224" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
-      <c r="G224" s="2"/>
-    </row>
-    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-    </row>
-    <row r="234" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B234" s="2"/>
-    </row>
-    <row r="238" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
+      <c r="A204" s="1"/>
+    </row>
+    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B236" s="2"/>
     </row>
     <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="2"/>
-      <c r="G240" s="2"/>
-    </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-    </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="260" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="2"/>
-      <c r="G260" s="2"/>
-    </row>
-    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-    </row>
-    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B270" s="2"/>
-    </row>
-    <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="1"/>
+      <c r="A240" s="1"/>
+    </row>
+    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+    </row>
+    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+    </row>
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B272" s="2"/>
     </row>
     <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="2"/>
-      <c r="G276" s="2"/>
-    </row>
-    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-    </row>
-    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="2"/>
-      <c r="G296" s="2"/>
-    </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-    </row>
-    <row r="306" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B306" s="2"/>
-    </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="1"/>
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+    </row>
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+    </row>
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B308" s="2"/>
     </row>
     <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="2"/>
-      <c r="G312" s="2"/>
-    </row>
-    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-    </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A332" s="2"/>
-      <c r="G332" s="2"/>
-    </row>
-    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-    </row>
-    <row r="342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B342" s="2"/>
-    </row>
-    <row r="346" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A346" s="1"/>
+      <c r="A312" s="1"/>
+    </row>
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+    </row>
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+    </row>
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B344" s="2"/>
     </row>
     <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="2"/>
-      <c r="G348" s="2"/>
-    </row>
-    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-    </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
-    </row>
-    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
-    </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A412" s="1"/>
-      <c r="B412" s="1"/>
-    </row>
-    <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
-    </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
-    </row>
-    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A461" s="1"/>
-      <c r="B461" s="1"/>
-    </row>
-    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A468" s="1"/>
-    </row>
-    <row r="477" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A477" s="1"/>
-      <c r="B477" s="1"/>
-    </row>
-    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A484" s="1"/>
-    </row>
-    <row r="491" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A491" s="1"/>
-      <c r="B491" s="1"/>
-    </row>
-    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A511" s="1"/>
-      <c r="B511" s="1"/>
-    </row>
-    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A518" s="1"/>
-    </row>
-    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A528" s="1"/>
-      <c r="B528" s="1"/>
-    </row>
-    <row r="535" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A540" s="1"/>
-      <c r="B540" s="1"/>
-    </row>
-    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A557" s="1"/>
-      <c r="B557" s="1"/>
-    </row>
-    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="575" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A575" s="1"/>
-      <c r="B575" s="1"/>
-    </row>
-    <row r="582" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="598" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A598" s="1"/>
-      <c r="B598" s="1"/>
-    </row>
-    <row r="605" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="617" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A617" s="1"/>
-      <c r="B617" s="1"/>
-    </row>
-    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="632" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A632" s="1"/>
-      <c r="B632" s="1"/>
-    </row>
-    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A644" s="1"/>
-      <c r="B644" s="1"/>
-    </row>
-    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="670" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A670" s="1"/>
-      <c r="B670" s="1"/>
-    </row>
-    <row r="676" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A676" s="1"/>
+      <c r="A348" s="1"/>
+    </row>
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+    </row>
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+    </row>
+    <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+    </row>
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+    </row>
+    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+    </row>
+    <row r="500" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+    </row>
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+    </row>
+    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+    </row>
+    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+    </row>
+    <row r="566" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+    </row>
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+    </row>
+    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+    </row>
+    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+    </row>
+    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+    </row>
+    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+    </row>
+    <row r="678" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A678" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H676" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H678" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3B42E-47F8-1040-BEA9-2726CB3DA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADF494-3E7E-5F4E-A28B-A89158FCFB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$678</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$682</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="98">
   <si>
     <t>technosphere</t>
   </si>
@@ -304,9 +304,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
-  </si>
-  <si>
     <t>hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
@@ -323,6 +320,15 @@
   </si>
   <si>
     <t>Assumed 2.9 gallons (11 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -389,7 +395,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -769,95 +775,83 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>3.0676551327453981E-8</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>4.6014826991180967E-6</v>
+        <v>3.0676551327453981E-8</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -874,10 +868,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>1.2270911966962279E-5</v>
+        <v>4.6014826991180967E-6</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -894,10 +888,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>3.067655132745397E-10</v>
+        <v>1.2270911966962279E-5</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -914,10 +908,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>2.1474168801179165E-5</v>
+        <v>3.067655132745397E-10</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -934,10 +928,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>8.9222937864716503</v>
+        <v>2.1474168801179165E-5</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -954,10 +948,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>6.4421923531576096E-5</v>
+        <v>8.9222937864716503</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -974,10 +968,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>3.0676551327453981E-6</v>
+        <v>6.4421923531576096E-5</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -994,7 +988,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
@@ -1014,10 +1008,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>9.2032568342168839E-10</v>
+        <v>3.0676551327453981E-6</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -1034,10 +1028,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>6.135601701471486E-5</v>
+        <v>9.2032568342168839E-10</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1054,10 +1048,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>5.4912367481653793E-4</v>
+        <v>6.135601701471486E-5</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -1074,10 +1068,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>3.0676551327453975E-7</v>
+        <v>5.4912367481653793E-4</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1094,10 +1088,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>6.135601701471486E-6</v>
+        <v>3.0676551327453975E-7</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1114,10 +1108,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>3.6814193080790292E-5</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1134,10 +1128,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>6.135601701471486E-6</v>
+        <v>3.6814193080790292E-5</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1154,10 +1148,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>6.1356017014714845E-7</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1174,10 +1168,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>1.6872686102061067E-5</v>
+        <v>6.1356017014714845E-7</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1194,10 +1188,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>6.135601701471486E-6</v>
+        <v>1.6872686102061067E-5</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -1214,19 +1208,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.38038158908113223</v>
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -1234,11 +1228,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4">
-        <f>B31-B33</f>
-        <v>0.37129660508113221</v>
+        <v>0.38038158908113223</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -1247,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
@@ -1255,86 +1248,84 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32-B34</f>
+        <v>0.37129660508113221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="4">
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4">
         <f>(2.4/1000)*3.78541</f>
         <v>9.0849839999999991E-3</v>
       </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
+      <c r="F34" t="s">
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>5.3272799999999989E-4</v>
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1343,15 +1334,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>3.6239999999999997E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1366,15 +1357,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1383,21 +1374,21 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>2.796E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1406,21 +1397,21 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>1.668E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1435,15 +1426,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B41">
-        <v>2.0292014459767036E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1458,15 +1449,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B42">
-        <v>3.1235999999999997E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1481,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>4.8000000000000001E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1504,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>1.1591999999999998E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -1527,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>7.5384135551020997</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -1550,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>8.8290154606725723E-4</v>
+        <v>7.5384135551020997</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -1573,15 +1564,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47">
-        <v>3.7140000000000003E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1596,219 +1587,198 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f>(B4*120)/36</f>
         <v>4.3695687772360907</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>16</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>21</v>
       </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52">
-        <v>1.2903504392436329</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>1.2903504392436329</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60">
-        <v>2.803301033677894E-8</v>
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B61">
-        <v>4.2049515505168402E-6</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
-        <v>36</v>
-      </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B62">
-        <v>1.1213470456299422E-5</v>
+        <v>2.803301033677894E-8</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -1831,10 +1801,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>2.8033010336778933E-10</v>
+        <v>4.2049515505168402E-6</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -1857,10 +1827,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>1.9623639878920949E-5</v>
+        <v>1.1213470456299422E-5</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -1883,10 +1853,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B65">
-        <v>2.6104586734695769</v>
+        <v>2.8033010336778933E-10</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -1909,10 +1879,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66">
-        <v>5.8870386993587143E-5</v>
+        <v>1.9623639878920949E-5</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -1935,10 +1905,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>2.8033010336778938E-6</v>
+        <v>2.6104586734695769</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -1961,10 +1931,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68">
-        <v>2.8033010336778938E-6</v>
+        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -1987,10 +1957,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B69">
-        <v>8.4101694226215283E-10</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -2013,10 +1983,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>5.6068683889436346E-5</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -2039,10 +2009,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>5.0180313582138397E-4</v>
+        <v>8.4101694226215283E-10</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -2065,10 +2035,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>2.8033010336778935E-7</v>
+        <v>5.6068683889436346E-5</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -2091,10 +2061,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>5.6068683889436342E-6</v>
+        <v>5.0180313582138397E-4</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -2117,10 +2087,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>3.3641742976837502E-5</v>
+        <v>2.8033010336778935E-7</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -2143,7 +2113,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>5.6068683889436342E-6</v>
@@ -2169,10 +2139,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>5.6068683889436334E-7</v>
+        <v>3.3641742976837502E-5</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -2195,10 +2165,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>1.5418688328404109E-5</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -2221,10 +2191,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78">
-        <v>5.6068683889436342E-6</v>
+        <v>5.6068683889436334E-7</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -2247,52 +2217,62 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79">
-        <v>0.38033800779618782</v>
+        <v>1.5418688328404109E-5</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="4">
-        <f>B79-B81</f>
-        <v>0.3693603187961878</v>
+        <v>53</v>
+      </c>
+      <c r="B80">
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>26</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="4">
-        <f>(2.9/1000)*3.78541</f>
-        <v>1.0977689000000001E-2</v>
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <v>0.38033800779618782</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -2301,73 +2281,69 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
-      </c>
-      <c r="I81" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
-      <c r="B82">
-        <v>6.1611670196058146</v>
+      <c r="B82" s="4">
+        <f>B81-B83</f>
+        <v>0.3693603187961878</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
       </c>
       <c r="G82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83">
-        <v>5.347707144163827E-10</v>
+        <v>91</v>
+      </c>
+      <c r="B83" s="4">
+        <f>(2.9/1000)*3.78541</f>
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>5.3272799999999989E-4</v>
+        <v>6.1611670196058146</v>
       </c>
       <c r="C84" t="s">
         <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
@@ -2376,44 +2352,44 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B85">
-        <v>3.6000000000000001E-5</v>
+        <v>5.347707144163827E-10</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B86">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
@@ -2422,15 +2398,15 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <v>2.0947967866659771E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
@@ -2445,15 +2421,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B88">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C88" t="s">
         <v>34</v>
@@ -2462,21 +2438,21 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B89">
-        <v>2.796E-5</v>
+        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C89" t="s">
         <v>34</v>
@@ -2491,15 +2467,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B90">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C90" t="s">
         <v>34</v>
@@ -2508,21 +2484,21 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B91">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C91" t="s">
         <v>34</v>
@@ -2537,15 +2513,15 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
@@ -2560,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B93">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C93" t="s">
         <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
         <v>1</v>
@@ -2583,15 +2559,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B94">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -2606,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B95">
-        <v>7.5375498599112571</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C95" t="s">
         <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
@@ -2629,15 +2605,15 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C96" t="s">
         <v>34</v>
@@ -2652,21 +2628,21 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B97">
-        <v>3.7140000000000003E-4</v>
+        <v>7.5375498599112571</v>
       </c>
       <c r="C97" t="s">
         <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
@@ -2675,400 +2651,385 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C98" t="s">
         <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>78</v>
       </c>
-      <c r="B99">
-        <f>(B52*120)/36</f>
+      <c r="B101">
+        <f>(B53*120)/36</f>
         <v>4.3011681308121101</v>
       </c>
-      <c r="C99" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
         <v>14</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>21</v>
       </c>
-      <c r="G99" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102">
-        <v>1.3068429847355314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B104">
+        <v>1.3068429847355314</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>11</v>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="str">
-        <f>B101</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110">
-        <v>8.9868381043588528</v>
-      </c>
-      <c r="C110" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>36</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s">
-        <v>29</v>
+      <c r="B109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111">
-        <v>2.9996721816189444E-3</v>
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>54</v>
+      <c r="A112" t="str">
+        <f>B103</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
       </c>
       <c r="B112">
-        <v>0.38041197561668283</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" s="4">
-        <f>B112-B114</f>
-        <v>0.37132699161668281</v>
+        <v>28</v>
+      </c>
+      <c r="B113">
+        <v>8.9868381043588528</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>26</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115">
+        <v>0.38041197561668283</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B115-B117</f>
+        <v>0.37132699161668281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" t="s">
         <v>92</v>
       </c>
-      <c r="B114" s="4">
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="4">
         <f>(2.4/1000)*3.78541</f>
         <v>9.0849839999999991E-3</v>
       </c>
-      <c r="C114" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
         <v>21</v>
       </c>
-      <c r="F114" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115">
-        <v>5.3487471618165237E-10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1</v>
+      <c r="F117" t="s">
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B118">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C118" t="s">
         <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G118" t="s">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B119">
-        <v>2.54628E-9</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G119" t="s">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B120">
-        <v>2.796E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -3083,15 +3044,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B121">
-        <v>1.668E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
@@ -3106,15 +3067,15 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B122">
-        <v>2.0292014459767036E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
@@ -3123,21 +3084,21 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B123">
-        <v>3.1235999999999997E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
@@ -3152,21 +3113,21 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B124">
-        <v>4.8000000000000001E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>1</v>
@@ -3175,15 +3136,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B125">
-        <v>1.1591999999999998E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C125" t="s">
         <v>34</v>
@@ -3198,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B126">
-        <v>7.5390157563601576</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C126" t="s">
         <v>34</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E126" t="s">
         <v>1</v>
@@ -3221,21 +3182,21 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B127">
-        <v>8.8290154606725723E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C127" t="s">
         <v>34</v>
       </c>
       <c r="D127" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
@@ -3244,15 +3205,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B128">
-        <v>3.7140000000000003E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C128" t="s">
         <v>34</v>
@@ -3267,387 +3228,372 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>7.5390157563601576</v>
       </c>
       <c r="C129" t="s">
         <v>34</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B130">
-        <f>(B102*120)/36</f>
-        <v>4.3561432824517716</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G130" t="s">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B133">
-        <v>1.3068466902465423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" t="s">
-        <v>90</v>
+        <f>(B104*120)/36</f>
+        <v>4.3561432824517716</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B136">
+        <v>1.3068466902465423</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" t="s">
-        <v>5</v>
-      </c>
-      <c r="I139" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" t="str">
-        <f>B132</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>31</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" t="s">
-        <v>90</v>
+      <c r="A140" t="s">
+        <v>95</v>
+      </c>
+      <c r="B140" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="B141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143">
-        <v>0.38041305426253447</v>
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="H143" t="s">
+        <v>5</v>
+      </c>
+      <c r="I143" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="4">
-        <f>B143-B145</f>
-        <v>0.36943536526253445</v>
+      <c r="A144" t="str">
+        <f>B135</f>
+        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>21</v>
-      </c>
-      <c r="F144" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145">
+        <v>0.58838389214647391</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147">
+        <v>0.38041305426253447</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" s="4">
+        <f>B147-B149</f>
+        <v>0.36943536526253445</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
         <v>92</v>
       </c>
-      <c r="B145" s="4">
+      <c r="G148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="4">
         <f>(2.9/1000)*3.78541</f>
         <v>1.0977689000000001E-2</v>
       </c>
-      <c r="C145" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
         <v>21</v>
       </c>
-      <c r="F145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>91</v>
-      </c>
-      <c r="B146">
-        <v>8.3442634742423714</v>
-      </c>
-      <c r="C146" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147">
-        <v>5.3487623280160849E-10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" t="s">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C148" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" t="s">
-        <v>58</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" t="s">
-        <v>0</v>
-      </c>
-      <c r="H148" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>60</v>
-      </c>
-      <c r="B149">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1</v>
+      <c r="F149" t="s">
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B150">
-        <v>3.6239999999999997E-4</v>
+        <v>8.3442634742423714</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
       </c>
       <c r="D150" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E150" t="s">
         <v>1</v>
@@ -3656,61 +3602,61 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B151">
-        <v>2.8370495812424056E-4</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C151" t="s">
         <v>34</v>
       </c>
       <c r="D151" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G151" t="s">
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B152">
-        <v>2.54628E-9</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E152" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B153">
-        <v>2.796E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C153" t="s">
         <v>34</v>
@@ -3725,15 +3671,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B154">
-        <v>1.668E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C154" t="s">
         <v>34</v>
@@ -3748,15 +3694,15 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B155">
-        <v>2.0292014459767036E-4</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
@@ -3771,15 +3717,15 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B156">
-        <v>3.1235999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
@@ -3788,27 +3734,27 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G156" t="s">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B157">
-        <v>4.8000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
         <v>1</v>
@@ -3817,15 +3763,15 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B158">
-        <v>1.1591999999999998E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
@@ -3840,21 +3786,21 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B159">
-        <v>7.5390371329954711</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E159" t="s">
         <v>1</v>
@@ -3863,15 +3809,15 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B160">
-        <v>8.8290154606725723E-4</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C160" t="s">
         <v>34</v>
@@ -3886,21 +3832,21 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B161">
-        <v>3.7140000000000003E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
       </c>
       <c r="D161" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E161" t="s">
         <v>1</v>
@@ -3909,39 +3855,38 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C162" t="s">
         <v>34</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B163">
-        <f>(B133*120)/36</f>
-        <v>4.3561556341551411</v>
+        <v>7.5390371329954711</v>
       </c>
       <c r="C163" t="s">
         <v>34</v>
@@ -3950,285 +3895,378 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167">
+        <f>(B136*120)/36</f>
+        <v>4.3561556341551411</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
         <v>21</v>
       </c>
-      <c r="G163" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="G167" t="s">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B164" s="2"/>
-    </row>
     <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="2"/>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="2"/>
-      <c r="G190" s="2"/>
-    </row>
-    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+      <c r="G194" s="2"/>
     </row>
     <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B200" s="2"/>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="2"/>
-      <c r="G206" s="2"/>
-    </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="2"/>
-      <c r="G226" s="2"/>
-    </row>
-    <row r="232" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+      <c r="G230" s="2"/>
     </row>
     <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B236" s="2"/>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="242" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="2"/>
-      <c r="G242" s="2"/>
-    </row>
-    <row r="251" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-    </row>
-    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="2"/>
-      <c r="G262" s="2"/>
-    </row>
-    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="2"/>
+      <c r="G266" s="2"/>
     </row>
     <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B272" s="2"/>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
     </row>
     <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="2"/>
-      <c r="G278" s="2"/>
-    </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-    </row>
-    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="2"/>
-      <c r="G298" s="2"/>
-    </row>
-    <row r="304" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
+      <c r="B276" s="2"/>
+    </row>
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="2"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+    </row>
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="2"/>
+      <c r="G302" s="2"/>
     </row>
     <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B308" s="2"/>
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
     </row>
     <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A314" s="2"/>
-      <c r="G314" s="2"/>
-    </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
-    </row>
-    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="334" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A334" s="2"/>
-      <c r="G334" s="2"/>
-    </row>
-    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
+      <c r="B312" s="2"/>
+    </row>
+    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+    </row>
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="2"/>
+      <c r="G338" s="2"/>
     </row>
     <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B344" s="2"/>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
     </row>
     <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A350" s="2"/>
-      <c r="G350" s="2"/>
-    </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-    </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
-    </row>
-    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
-    </row>
-    <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
-    </row>
-    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
-    </row>
-    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="463" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A463" s="1"/>
-      <c r="B463" s="1"/>
-    </row>
-    <row r="470" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A470" s="1"/>
-    </row>
-    <row r="479" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A479" s="1"/>
-      <c r="B479" s="1"/>
-    </row>
-    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="1"/>
-      <c r="B493" s="1"/>
-    </row>
-    <row r="500" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A500" s="1"/>
-    </row>
-    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A513" s="1"/>
-      <c r="B513" s="1"/>
-    </row>
-    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A530" s="1"/>
-      <c r="B530" s="1"/>
-    </row>
-    <row r="537" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
-    </row>
-    <row r="549" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A549" s="1"/>
-    </row>
-    <row r="559" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A559" s="1"/>
-      <c r="B559" s="1"/>
-    </row>
-    <row r="566" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A577" s="1"/>
-      <c r="B577" s="1"/>
-    </row>
-    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="600" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A600" s="1"/>
-      <c r="B600" s="1"/>
-    </row>
-    <row r="607" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="619" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A619" s="1"/>
-      <c r="B619" s="1"/>
-    </row>
-    <row r="626" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="634" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A634" s="1"/>
-      <c r="B634" s="1"/>
-    </row>
-    <row r="640" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="646" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A646" s="1"/>
-      <c r="B646" s="1"/>
-    </row>
-    <row r="652" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="672" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A672" s="1"/>
-      <c r="B672" s="1"/>
-    </row>
-    <row r="678" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A678" s="1"/>
+      <c r="B348" s="2"/>
+    </row>
+    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="2"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+    </row>
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+    </row>
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+    </row>
+    <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+    </row>
+    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+    </row>
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+    </row>
+    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+    </row>
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+    </row>
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+    </row>
+    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+    </row>
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+    </row>
+    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+    </row>
+    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A570" s="1"/>
+    </row>
+    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
+    </row>
+    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A588" s="1"/>
+    </row>
+    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+    </row>
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+    </row>
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
+    </row>
+    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
+    </row>
+    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+    </row>
+    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+      <c r="B650" s="1"/>
+    </row>
+    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+    </row>
+    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
+    </row>
+    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A682" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H678" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADF494-3E7E-5F4E-A28B-A89158FCFB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54F5BA-1DD0-CC44-B392-6079AB7125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="97">
   <si>
     <t>technosphere</t>
   </si>
@@ -103,9 +103,6 @@
     <t>cubic meter</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>categories</t>
   </si>
   <si>
@@ -289,24 +286,9 @@
     <t>nickel, class 1</t>
   </si>
   <si>
-    <t>hydrogen production, steam methane reforming of natural gas, 25 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, steam methane reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming of natural gas, 25 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -329,6 +311,21 @@
   </si>
   <si>
     <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, with CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, with CCS</t>
   </si>
 </sst>
 </file>
@@ -338,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +366,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,12 +395,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I682"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -738,12 +744,12 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.3108706331708271</v>
@@ -754,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -762,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -775,18 +781,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -811,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -820,21 +826,21 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -843,457 +849,457 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>3.0676551327453981E-8</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>4.6014826991180967E-6</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1.2270911966962279E-5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>3.067655132745397E-10</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>2.1474168801179165E-5</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>8.9222937864716503</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>6.4421923531576096E-5</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>3.0676551327453981E-6</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>9.2032568342168839E-10</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>6.135601701471486E-5</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>5.4912367481653793E-4</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>3.0676551327453975E-7</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>3.6814193080790292E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>6.1356017014714845E-7</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>1.6872686102061067E-5</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>6.135601701471486E-6</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4">
         <v>0.38038158908113223</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4">
         <f>B32-B34</f>
         <v>0.37129660508113221</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4">
         <f>(2.4/1000)*3.78541</f>
         <v>9.0849839999999991E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>5.3483199147628007E-10</v>
@@ -1311,12 +1317,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>5.3272799999999989E-4</v>
@@ -1325,21 +1331,21 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>58</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>3.6000000000000001E-5</v>
@@ -1357,12 +1363,12 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>3.6239999999999997E-4</v>
@@ -1380,12 +1386,12 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>2.54628E-9</v>
@@ -1403,12 +1409,12 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>2.796E-5</v>
@@ -1426,12 +1432,12 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>1.668E-5</v>
@@ -1449,12 +1455,12 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>2.0292014459767036E-4</v>
@@ -1472,12 +1478,12 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>3.1235999999999997E-4</v>
@@ -1495,12 +1501,12 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>4.8000000000000001E-5</v>
@@ -1518,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1546,7 +1552,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>7.5384135551020997</v>
@@ -1564,12 +1570,12 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>8.8290154606725723E-4</v>
@@ -1587,12 +1593,12 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48">
         <v>3.7140000000000003E-4</v>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1638,7 +1644,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50">
         <f>(B4*120)/36</f>
@@ -1657,20 +1663,20 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>85</v>
+      <c r="B52" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>1.2903504392436329</v>
@@ -1681,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -1689,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -1702,18 +1708,18 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1738,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -1747,21 +1753,21 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
@@ -1770,577 +1776,577 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>2.803301033677894E-8</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>4.2049515505168402E-6</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>1.1213470456299422E-5</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>2.8033010336778933E-10</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66">
         <v>1.9623639878920949E-5</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>2.6104586734695769</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68">
         <v>5.8870386993587143E-5</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69">
         <v>2.8033010336778938E-6</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>2.8033010336778938E-6</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71">
         <v>8.4101694226215283E-10</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>5.6068683889436346E-5</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73">
         <v>5.0180313582138397E-4</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74">
         <v>2.8033010336778935E-7</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>5.6068683889436342E-6</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76">
         <v>3.3641742976837502E-5</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77">
         <v>5.6068683889436342E-6</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>5.6068683889436334E-7</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79">
         <v>1.5418688328404109E-5</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80">
         <v>5.6068683889436342E-6</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>0.38033800779618782</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4">
         <f>B81-B83</f>
         <v>0.3693603187961878</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4">
         <f>(2.9/1000)*3.78541</f>
         <v>1.0977689000000001E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>6.1611670196058146</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -2352,18 +2358,18 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>5.347707144163827E-10</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -2375,41 +2381,41 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
         <v>58</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2421,18 +2427,18 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
@@ -2444,18 +2450,18 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89">
         <v>2.0947967866659771E-4</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
@@ -2467,18 +2473,18 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90">
         <v>2.54628E-9</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -2490,18 +2496,18 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <v>2.796E-5</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -2513,18 +2519,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92">
         <v>1.668E-5</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2536,18 +2542,18 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
@@ -2559,18 +2565,18 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B94">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
@@ -2582,18 +2588,18 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -2605,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -2616,7 +2622,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
@@ -2633,13 +2639,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97">
         <v>7.5375498599112571</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -2651,18 +2657,18 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
@@ -2674,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
@@ -2725,14 +2731,14 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <f>(B53*120)/36</f>
         <v>4.3011681308121101</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -2744,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2752,12 +2758,12 @@
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104">
         <v>1.3068429847355314</v>
@@ -2776,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,18 +2795,18 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2825,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
         <v>6</v>
@@ -2834,19 +2840,19 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f>B103</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, 25 bar</v>
+        <v>hydrogen production, auto-thermal reforming</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -2858,135 +2864,135 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113">
         <v>8.9868381043588528</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B114">
         <v>2.9996721816189444E-3</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115">
         <v>0.38041197561668283</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B116" s="4">
         <f>B115-B117</f>
         <v>0.37132699161668281</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B117" s="4">
         <f>(2.4/1000)*3.78541</f>
         <v>9.0849839999999991E-3</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B118">
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -2998,41 +3004,41 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
         <v>58</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" t="s">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B120">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
@@ -3044,18 +3050,18 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -3067,18 +3073,18 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122">
         <v>2.54628E-9</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -3090,18 +3096,18 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123">
         <v>2.796E-5</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -3113,18 +3119,18 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B124">
         <v>1.668E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" t="s">
         <v>2</v>
@@ -3136,18 +3142,18 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B125">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
@@ -3159,18 +3165,18 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
@@ -3182,18 +3188,18 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B127">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -3205,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -3216,7 +3222,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
@@ -3233,13 +3239,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129">
         <v>7.5390157563601576</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
@@ -3251,18 +3257,18 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B130">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
@@ -3274,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B131">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
         <v>2</v>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -3308,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -3325,14 +3331,14 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B133">
         <f>(B104*120)/36</f>
         <v>4.3561432824517716</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -3356,12 +3362,12 @@
         <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B136">
         <v>1.3068466902465423</v>
@@ -3380,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -3393,18 +3399,18 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -3429,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
@@ -3438,19 +3444,19 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f>B135</f>
-        <v>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar</v>
+        <v>hydrogen production, auto-thermal reforming, with CCS</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
@@ -3462,135 +3468,135 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B145">
         <v>0.58838389214647391</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>2.9996721816189444E-3</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146" t="s">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147">
         <v>0.38041305426253447</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147" t="s">
         <v>21</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B148" s="4">
         <f>B147-B149</f>
         <v>0.36943536526253445</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
         <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B149" s="4">
         <f>(2.9/1000)*3.78541</f>
         <v>1.0977689000000001E-2</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149" t="s">
         <v>21</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B150">
         <v>8.3442634742423714</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -3602,18 +3608,18 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B151">
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -3625,41 +3631,41 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B152">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
         <v>58</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1</v>
-      </c>
-      <c r="G152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B153">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3671,18 +3677,18 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B154">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
@@ -3694,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B155">
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
@@ -3717,18 +3723,18 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156">
         <v>2.54628E-9</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
         <v>2</v>
@@ -3740,18 +3746,18 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B157">
         <v>2.796E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" t="s">
         <v>2</v>
@@ -3763,18 +3769,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158">
         <v>1.668E-5</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
@@ -3786,18 +3792,18 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
@@ -3809,18 +3815,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B160">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
@@ -3832,18 +3838,18 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B161">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -3855,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,7 +3872,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
@@ -3883,13 +3889,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163">
         <v>7.5390371329954711</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
@@ -3901,18 +3907,18 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B164">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
         <v>2</v>
@@ -3924,18 +3930,18 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B165">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
@@ -3947,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -3958,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
@@ -3975,14 +3981,14 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B167">
         <f>(B136*120)/36</f>
         <v>4.3561556341551411</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54F5BA-1DD0-CC44-B392-6079AB7125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBF00D-93C7-6A4D-BACB-8CF4D0833360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="98">
   <si>
     <t>technosphere</t>
   </si>
@@ -268,9 +268,6 @@
     <t>zinc oxide</t>
   </si>
   <si>
-    <t>market group for natural gas, high pressure</t>
-  </si>
-  <si>
     <t>natural gas, high pressure</t>
   </si>
   <si>
@@ -326,6 +323,12 @@
   </si>
   <si>
     <t>hydrogen production, auto-thermal reforming, with CCS</t>
+  </si>
+  <si>
+    <t>market for natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D683" sqref="D683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,18 +740,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -755,7 +759,7 @@
         <v>1.3108706331708271</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -763,15 +767,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -779,28 +783,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -826,12 +830,12 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -849,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -872,7 +876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -892,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -912,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -932,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -952,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -972,7 +976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -992,7 +996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1252,9 +1256,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4">
         <f>B32-B34</f>
@@ -1267,15 +1271,15 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4">
         <f>(2.4/1000)*3.78541</f>
@@ -1294,10 +1298,10 @@
         <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -1458,9 +1462,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2.0292014459767036E-4</v>
@@ -1478,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1648,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <f>(B4*120)/36</f>
@@ -1654,7 +1658,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1663,18 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>1.2903504392436329</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1690,15 +1695,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1706,28 +1711,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1753,12 +1758,12 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1776,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -1961,7 +1966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -1987,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -2039,7 +2044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -2169,7 +2174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -2221,7 +2226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -2293,9 +2298,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4">
         <f>B81-B83</f>
@@ -2308,15 +2313,15 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4">
         <f>(2.9/1000)*3.78541</f>
@@ -2335,12 +2340,12 @@
         <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6.1611670196058146</v>
@@ -2358,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2453,9 +2458,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89">
         <v>2.0947967866659771E-4</v>
@@ -2473,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2545,9 +2550,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>2.0292014459767036E-4</v>
@@ -2565,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2736,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <f>(B53*120)/36</f>
@@ -2741,7 +2746,7 @@
         <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -2750,18 +2755,19 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>1.3068429847355314</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2777,15 +2783,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2793,28 +2799,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" t="s">
         <v>89</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2840,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f>B103</f>
         <v>hydrogen production, auto-thermal reforming</v>
@@ -2864,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>45</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>53</v>
       </c>
@@ -2939,9 +2945,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B116" s="4">
         <f>B115-B117</f>
@@ -2954,15 +2960,15 @@
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G116" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B117" s="4">
         <f>(2.4/1000)*3.78541</f>
@@ -2981,10 +2987,10 @@
         <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>56</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>67</v>
       </c>
@@ -3145,9 +3151,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B125">
         <v>2.0292014459767036E-4</v>
@@ -3165,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>69</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>71</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>73</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>75</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3337,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B133">
         <f>(B104*120)/36</f>
@@ -3341,7 +3347,7 @@
         <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
         <v>21</v>
@@ -3350,22 +3356,22 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>1.3068466902465423</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3381,15 +3387,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -3397,28 +3403,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>88</v>
+      </c>
+      <c r="B140" t="s">
         <v>89</v>
       </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>83</v>
-      </c>
-      <c r="B141" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3444,10 +3450,10 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f>B135</f>
         <v>hydrogen production, auto-thermal reforming, with CCS</v>
@@ -3468,10 +3474,10 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>53</v>
       </c>
@@ -3543,9 +3549,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B148" s="4">
         <f>B147-B149</f>
@@ -3558,15 +3564,15 @@
         <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G148" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B149" s="4">
         <f>(2.9/1000)*3.78541</f>
@@ -3585,12 +3591,12 @@
         <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B150">
         <v>8.3442634742423714</v>
@@ -3608,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>54</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>61</v>
       </c>
@@ -3703,9 +3709,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155">
         <v>2.8370495812424056E-4</v>
@@ -3723,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>63</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>65</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>67</v>
       </c>
@@ -3795,9 +3801,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B159">
         <v>2.0292014459767036E-4</v>
@@ -3815,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>69</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>71</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>73</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>75</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +3987,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B167">
         <f>(B136*120)/36</f>
@@ -3991,7 +3997,7 @@
         <v>33</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E167" t="s">
         <v>21</v>
@@ -4000,279 +4006,724 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
     </row>
-    <row r="208" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="210" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="219" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="227" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
-    <row r="230" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="236" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="240" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
     </row>
-    <row r="244" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
     </row>
-    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
     </row>
-    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
     </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
     </row>
-    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
     </row>
-    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="312" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B312" s="2"/>
     </row>
-    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
     </row>
-    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
     </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
     </row>
-    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
     </row>
-    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="348" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B348" s="2"/>
     </row>
-    <row r="352" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="352" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
     </row>
-    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
     </row>
-    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="381" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
     </row>
-    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
     </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
     </row>
-    <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
     </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="418" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
     </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
     </row>
-    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="440" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
     </row>
-    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
     </row>
-    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
     </row>
-    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="459" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
     </row>
-    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
     </row>
-    <row r="474" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="474" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
     </row>
-    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
     </row>
-    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
     </row>
-    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="497" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
     </row>
-    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="504" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
     </row>
-    <row r="517" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="517" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
     </row>
-    <row r="524" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="524" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
     </row>
-    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="534" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
     </row>
-    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
     </row>
-    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="546" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
     </row>
-    <row r="553" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="553" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
     </row>
-    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="563" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
     </row>
-    <row r="570" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="570" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
     </row>
-    <row r="581" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="581" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
     </row>
-    <row r="588" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="588" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
     </row>
-    <row r="604" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="604" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
     </row>
-    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="611" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
     </row>
-    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
     </row>
-    <row r="630" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="630" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
     </row>
-    <row r="638" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="638" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
     </row>
-    <row r="644" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="644" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
     </row>
-    <row r="650" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
     </row>
-    <row r="656" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
     </row>
-    <row r="676" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="658" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="659" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="660" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="661" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="662" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="663" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="664" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="665" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="666" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="667" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="668" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="669" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="670" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="671" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="672" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="676" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
     </row>
-    <row r="682" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="682" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market group for natural gas, high pressure"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBF00D-93C7-6A4D-BACB-8CF4D0833360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79B06F-28F6-0143-A049-1D8D12D5BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="99">
   <si>
     <t>technosphere</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>Original ecoinvent value.</t>
   </si>
 </sst>
 </file>
@@ -398,13 +401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +727,7 @@
   <dimension ref="A1:I682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D683" sqref="D683"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1301,12 +1305,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B35">
-        <v>5.3483199147628007E-10</v>
+      <c r="B35" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1322,6 +1326,9 @@
       </c>
       <c r="H35" t="s">
         <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -1646,7 +1653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2366,12 +2373,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>54</v>
       </c>
-      <c r="B85">
-        <v>5.347707144163827E-10</v>
+      <c r="B85" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C85" t="s">
         <v>33</v>
@@ -2387,6 +2394,9 @@
       </c>
       <c r="H85" t="s">
         <v>55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2734,7 +2744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -2990,12 +3000,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>54</v>
       </c>
-      <c r="B118">
-        <v>5.3487471618165237E-10</v>
+      <c r="B118" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C118" t="s">
         <v>33</v>
@@ -3011,6 +3021,9 @@
       </c>
       <c r="H118" t="s">
         <v>55</v>
+      </c>
+      <c r="I118" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3335,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -3617,12 +3630,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>54</v>
       </c>
-      <c r="B151">
-        <v>5.3487623280160849E-10</v>
+      <c r="B151" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C151" t="s">
         <v>33</v>
@@ -3638,6 +3651,9 @@
       </c>
       <c r="H151" t="s">
         <v>55</v>
+      </c>
+      <c r="I151" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3985,7 +4001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4736,7 @@
   <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="market group for natural gas, high pressure"/>
+        <filter val="chemical factory construction, organics"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\elegancy\premise input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBF00D-93C7-6A4D-BACB-8CF4D0833360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8180BA6E-73EE-4578-BC96-61F405B21604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$678</definedName>
+    <definedName name="MJ_per_kg_H2">Hydrogen!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="104">
   <si>
     <t>technosphere</t>
   </si>
@@ -133,9 +134,6 @@
     <t>hydrogen-smr-natgas</t>
   </si>
   <si>
-    <t>Total energy input to reformer</t>
-  </si>
-  <si>
     <t>ecoinvent 3.6 cutoff</t>
   </si>
   <si>
@@ -307,9 +305,6 @@
     <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
   </si>
   <si>
-    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
-  </si>
-  <si>
     <t>hydrogen production, steam methane reforming</t>
   </si>
   <si>
@@ -329,6 +324,39 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>Original ecoinvent value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D
+This inventory represents the case "ATR NG, HT+LT with CCS MDEA 98 average" from that publication with the following changes: Combustion of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -17.8 MWe to -6.5 MWe. External power requirement is calculated to be 0.73 kWh/kgH2. 
+</t>
+  </si>
+  <si>
+    <t>Excess electricity amounts to 0.63 kWh/kg, which could substitute other electricity production. For simplicity this amount is set to 0.</t>
+  </si>
+  <si>
+    <t>Excess electricity amounts to 1.23 kWh/kg, which could substitute other electricity production. For simplicity this amount is set to 0.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "ATR NG, HT+LT+MDEA 98 average" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -17.8 MWe to -6.5 MWe (see Figure 2 in the publication). External power required is calculated to be 0.73 kWh/kgH2. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. This inventory represents the case "SMR NG, HT+LT" from that publication with the following changes: (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -0.12 MWe to 11.1 MWe (see Figure 2 in the publication). Excess power is calculated to be 1.23kWh/kgH2. This could replace production of electricity. In this inventory, this excess power is set to 0 for simplicity. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only. 
+Natural gas: density was 0.86 kg/m3 in the publication, but changed to  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "ATR NG, HT+LT" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -5.6 MWe to 5.6 MWe (see Figure 2 in the publication). Excess power is calculated to be 0.63 kWh/kgH2. This could replace production of electricity. In this inventory, this excess power is set to 0 for simplicity. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas: density was 0.86 kg/m3 in the publication, but changed to 0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "SMR NG, HT+LT, + CCS (MDEA), 98 (average)" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from  -11.52 MWe to -0.3 MWe (see Figure 2 in the publication). Required external power input is calculated to be 0.035 kWh/kgH2.  (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas: density was 0.86 kg/m3 in the publication, but changed to 0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -398,13 +426,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -569,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -711,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,20 +748,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D683" sqref="D683"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,128 +769,140 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>1.3108706331708271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3.0676551327453981E-8</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>3.0676551327453981E-8</v>
+        <v>4.6014826991180967E-6</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -870,18 +911,18 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
-        <v>4.6014826991180967E-6</v>
+        <v>1.2270911966962279E-5</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -890,18 +931,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
-        <v>1.2270911966962279E-5</v>
+        <v>3.067655132745397E-10</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -910,18 +951,18 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
-        <v>3.067655132745397E-10</v>
+        <v>2.1474168801179165E-5</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -930,38 +971,38 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>8.9222937864716503</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>2.1474168801179165E-5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
-        <v>8.9222937864716503</v>
+        <v>6.4421923531576096E-5</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -970,18 +1011,18 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
-        <v>6.4421923531576096E-5</v>
+        <v>3.0676551327453981E-6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -990,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1010,18 +1051,18 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21">
-        <v>3.0676551327453981E-6</v>
+        <v>9.2032568342168839E-10</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -1030,18 +1071,18 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22">
-        <v>9.2032568342168839E-10</v>
+        <v>6.135601701471486E-5</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1050,18 +1091,18 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
-        <v>6.135601701471486E-5</v>
+        <v>5.4912367481653793E-4</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1070,18 +1111,18 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24">
-        <v>5.4912367481653793E-4</v>
+        <v>3.0676551327453975E-7</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1090,18 +1131,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25">
-        <v>3.0676551327453975E-7</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1110,18 +1151,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26">
-        <v>6.135601701471486E-6</v>
+        <v>3.6814193080790292E-5</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1130,18 +1171,18 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27">
-        <v>3.6814193080790292E-5</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -1150,18 +1191,18 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
       <c r="B28">
-        <v>6.135601701471486E-6</v>
+        <v>6.1356017014714845E-7</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -1170,18 +1211,18 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29">
-        <v>6.1356017014714845E-7</v>
+        <v>1.6872686102061067E-5</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -1190,18 +1231,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
       <c r="B30">
-        <v>1.6872686102061067E-5</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -1210,38 +1251,38 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31">
-        <v>6.135601701471486E-6</v>
+        <v>0.38038158908113223</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4">
-        <v>0.38038158908113223</v>
+        <v>0.37129531176681224</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1250,19 +1291,18 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4">
-        <f>B32-B34</f>
-        <v>0.37129660508113221</v>
+        <v>9.0849839999999991E-3</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -1271,71 +1311,76 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
         <v>85</v>
       </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="4">
-        <f>(2.4/1000)*3.78541</f>
-        <v>9.0849839999999991E-3</v>
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>5.3483199147628007E-10</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>5.3272799999999989E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1344,15 +1389,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>3.6000000000000001E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1367,15 +1412,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>3.6239999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1384,21 +1429,21 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>2.54628E-9</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1407,21 +1452,21 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>2.796E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1436,15 +1481,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>1.668E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1459,15 +1504,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
       <c r="B42">
-        <v>2.0292014459767036E-4</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1482,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>3.1235999999999997E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1505,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>4.8000000000000001E-5</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -1528,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>1.1591999999999998E-5</v>
+        <v>4.430822860844585</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -1551,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B46">
-        <v>7.5384135551020997</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -1574,15 +1619,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47">
-        <v>8.8290154606725723E-4</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1597,199 +1642,221 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>3.7140000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4.5588709815562902</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50">
-        <f>(B4*120)/36</f>
-        <v>4.3695687772360907</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53">
-        <v>1.2903504392436329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>1.9949446142967199E-8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2.9924169214450796E-6</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
       <c r="G61" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62">
-        <v>2.803301033677894E-8</v>
+        <v>7.9799679826110004E-6</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -1801,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
@@ -1810,12 +1877,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>4.2049515505168402E-6</v>
+        <v>1.9949446142967197E-10</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -1827,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -1836,12 +1903,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>1.1213470456299422E-5</v>
+        <v>1.3964991350925282E-5</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
@@ -1853,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
@@ -1862,12 +1929,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>2.8033010336778933E-10</v>
+        <v>3.5739278053752441</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -1879,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
@@ -1888,12 +1955,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
       <c r="B66">
-        <v>1.9623639878920949E-5</v>
+        <v>4.18945950019276E-5</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -1905,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>25</v>
@@ -1914,12 +1981,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B67">
-        <v>2.6104586734695769</v>
+        <v>1.9949446142967199E-6</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -1931,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -1940,12 +2007,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B68">
-        <v>5.8870386993587143E-5</v>
+        <v>1.9949446142967199E-6</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -1957,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -1966,12 +2033,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69">
-        <v>2.8033010336778938E-6</v>
+        <v>5.9850233683142804E-10</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -1983,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -1992,12 +2059,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>2.8033010336778938E-6</v>
+        <v>3.9900787540175611E-5</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2009,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
@@ -2018,12 +2085,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>8.4101694226215283E-10</v>
+        <v>3.5710380412862236E-4</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -2035,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
@@ -2044,12 +2111,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>5.6068683889436346E-5</v>
+        <v>1.9949446142967197E-7</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -2061,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>25</v>
@@ -2070,12 +2137,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>5.0180313582138397E-4</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -2087,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>25</v>
@@ -2096,12 +2163,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>2.8033010336778935E-7</v>
+        <v>2.3940851574953607E-5</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -2113,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>25</v>
@@ -2122,12 +2189,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>5.6068683889436342E-6</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -2139,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>25</v>
@@ -2148,12 +2215,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>3.3641742976837502E-5</v>
+        <v>3.9900787540175603E-7</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -2165,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
@@ -2174,12 +2241,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>5.6068683889436342E-6</v>
+        <v>1.0972574429480202E-5</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
@@ -2191,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>25</v>
@@ -2200,12 +2267,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78">
-        <v>5.6068683889436334E-7</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2217,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>25</v>
@@ -2226,64 +2293,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79">
-        <v>1.5418688328404109E-5</v>
+        <v>0.38038029576681226</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>25</v>
       </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80">
-        <v>5.6068683889436342E-6</v>
+        <v>83</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.36940260676681225</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
-      <c r="D80" t="s">
-        <v>28</v>
-      </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
       </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81">
-        <v>0.38033800779618782</v>
+        <v>83</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -2292,69 +2347,76 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="4">
-        <f>B81-B83</f>
-        <v>0.3693603187961878</v>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>5.2412402057638054</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4">
-        <f>(2.9/1000)*3.78541</f>
-        <v>1.0977689000000001E-2</v>
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>54</v>
       </c>
       <c r="I83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B84">
-        <v>6.1611670196058146</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
@@ -2363,44 +2425,44 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B85">
-        <v>5.347707144163827E-10</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B86">
-        <v>5.3272799999999989E-4</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
@@ -2409,18 +2471,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B87">
-        <v>3.6000000000000001E-5</v>
+        <v>1.7820216699596938E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2432,41 +2494,41 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B88">
-        <v>3.6239999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B89">
-        <v>2.0947967866659771E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
@@ -2478,41 +2540,41 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B90">
-        <v>2.54628E-9</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B91">
-        <v>2.796E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -2524,18 +2586,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <v>1.668E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2547,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B93">
-        <v>2.0292014459767036E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>1</v>
@@ -2570,18 +2632,18 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>3.1235999999999997E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
@@ -2593,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>4.8000000000000001E-5</v>
+        <v>4.430822860844585</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
@@ -2616,18 +2678,18 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
       <c r="B96">
-        <v>1.1591999999999998E-5</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
@@ -2639,21 +2701,21 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B97">
-        <v>7.5375498599112571</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
@@ -2662,47 +2724,47 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>8.8290154606725723E-4</v>
+        <v>3.5182635672319829E-2</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B99">
-        <v>3.7140000000000003E-4</v>
+        <v>4.5304971565552314</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>0</v>
@@ -2711,340 +2773,353 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101">
-        <f>(B53*120)/36</f>
-        <v>4.3011681308121101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>8.9868381043588528</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <v>0.38041197561668283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
         <v>21</v>
       </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104">
-        <v>1.3068429847355314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" t="s">
-        <v>5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="str">
-        <f>B103</f>
-        <v>hydrogen production, auto-thermal reforming</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1</v>
+      <c r="F112" t="s">
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113">
-        <v>8.9868381043588528</v>
+        <v>83</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.36943428661668282</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
       </c>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G113" t="s">
         <v>25</v>
       </c>
-      <c r="H113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114">
-        <v>2.9996721816189444E-3</v>
+        <v>83</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
       </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
       <c r="E114" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>25</v>
       </c>
-      <c r="H114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>53</v>
       </c>
       <c r="B115">
-        <v>0.38041197561668283</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" s="4">
-        <f>B115-B117</f>
-        <v>0.37132699161668281</v>
+        <v>55</v>
+      </c>
+      <c r="B116">
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" s="4">
-        <f>(2.4/1000)*3.78541</f>
-        <v>9.0849839999999991E-3</v>
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B118">
-        <v>5.3487471618165237E-10</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
         <v>4</v>
       </c>
-      <c r="G118" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1</v>
-      </c>
       <c r="G119" t="s">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B120">
-        <v>3.6000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
@@ -3056,18 +3131,18 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B121">
-        <v>3.6239999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -3079,41 +3154,41 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B122">
-        <v>2.54628E-9</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B123">
-        <v>2.796E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -3125,21 +3200,21 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B124">
-        <v>1.668E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
         <v>1</v>
@@ -3148,18 +3223,18 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>2.0292014459767036E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
@@ -3171,45 +3246,45 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B126">
-        <v>3.1235999999999997E-4</v>
+        <v>4.4311768142436039</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
         <v>2</v>
       </c>
-      <c r="E126" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>71</v>
-      </c>
-      <c r="B127">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
       <c r="E127" t="s">
         <v>1</v>
       </c>
@@ -3217,18 +3292,18 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B128">
-        <v>1.1591999999999998E-5</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
@@ -3240,372 +3315,389 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B129">
-        <v>7.5390157563601576</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B130">
-        <v>8.8290154606725723E-4</v>
+        <v>4.588432687243472</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G130" t="s">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131">
-        <v>3.7140000000000003E-4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>33</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" t="s">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
         <v>15</v>
       </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133">
-        <f>(B104*120)/36</f>
-        <v>4.3561432824517716</v>
-      </c>
-      <c r="C133" t="s">
-        <v>33</v>
-      </c>
-      <c r="D133" t="s">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E133" t="s">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>93</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141">
+        <v>0.58838389214647391</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143">
+        <v>0.38041305426253447</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
         <v>21</v>
       </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136">
-        <v>1.3068466902465423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.36943536526253445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>84</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1.0977689000000001E-2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146">
+        <v>8.3442634742423714</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>82</v>
       </c>
-      <c r="B141" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
-      </c>
-      <c r="H143" t="s">
-        <v>5</v>
-      </c>
-      <c r="I143" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="str">
-        <f>B135</f>
-        <v>hydrogen production, auto-thermal reforming, with CCS</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>30</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C145" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>53</v>
       </c>
       <c r="B147">
-        <v>0.38041305426253447</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>54</v>
+      </c>
+      <c r="I147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B148" s="4">
-        <f>B147-B149</f>
-        <v>0.36943536526253445</v>
+        <v>55</v>
+      </c>
+      <c r="B148">
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>21</v>
-      </c>
-      <c r="F148" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>84</v>
-      </c>
-      <c r="B149" s="4">
-        <f>(2.9/1000)*3.78541</f>
-        <v>1.0977689000000001E-2</v>
+        <v>58</v>
+      </c>
+      <c r="B149">
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="I149" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B150">
-        <v>8.3442634742423714</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
         <v>1</v>
@@ -3614,64 +3706,64 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B151">
-        <v>5.3487623280160849E-10</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
         <v>4</v>
       </c>
-      <c r="G151" t="s">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1</v>
-      </c>
       <c r="G152" t="s">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B153">
-        <v>3.6000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3683,18 +3775,18 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B154">
-        <v>3.6239999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
@@ -3706,18 +3798,18 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B155">
-        <v>2.8370495812424056E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
@@ -3729,44 +3821,44 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B156">
-        <v>2.54628E-9</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" t="s">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G156" t="s">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B157">
-        <v>2.796E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
         <v>1</v>
@@ -3775,18 +3867,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B158">
-        <v>1.668E-5</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
@@ -3798,21 +3890,21 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B159">
-        <v>2.0292014459767036E-4</v>
+        <v>4.4311893787021255</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E159" t="s">
         <v>1</v>
@@ -3821,18 +3913,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B160">
-        <v>3.1235999999999997E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
@@ -3844,886 +3936,347 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B161">
-        <v>4.8000000000000001E-5</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162">
+        <v>0.72876476127298562</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
         <v>15</v>
       </c>
-      <c r="E161" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162">
-        <v>1.1591999999999998E-5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
       <c r="E162" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B163">
-        <v>7.5390371329954711</v>
+        <v>4.588445697595934</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E163" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>73</v>
-      </c>
-      <c r="B164">
-        <v>8.8290154606725723E-4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" t="s">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>75</v>
-      </c>
-      <c r="B165">
-        <v>3.7140000000000003E-4</v>
-      </c>
-      <c r="C165" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1</v>
-      </c>
-      <c r="G165" t="s">
-        <v>0</v>
-      </c>
-      <c r="H165" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s">
-        <v>0</v>
-      </c>
-      <c r="H166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>96</v>
-      </c>
-      <c r="B167">
-        <f>(B136*120)/36</f>
-        <v>4.3561556341551411</v>
-      </c>
-      <c r="C167" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" t="s">
-        <v>97</v>
-      </c>
-      <c r="E167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2"/>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
-      <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="210" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2"/>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2"/>
-      <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="244" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="2"/>
-      <c r="G246" s="2"/>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="2"/>
-      <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="2"/>
-      <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="2"/>
-      <c r="G302" s="2"/>
-    </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="2"/>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="2"/>
-      <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="2"/>
-      <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
-    </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
-    </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="1"/>
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="474" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
-    </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="497" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="1"/>
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="517" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="1"/>
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="581" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="1"/>
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="588" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="604" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="1"/>
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="611" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="1"/>
-      <c r="B623" s="1"/>
-    </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="630" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="638" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="1"/>
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="644" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="1"/>
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="658" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="659" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="660" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="661" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="662" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="663" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="664" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="665" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="666" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="667" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="668" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="669" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="670" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="671" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="672" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="676" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
-    </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="682" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="1"/>
+    <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="359" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="366" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+    </row>
+    <row r="443" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="463" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+    </row>
+    <row r="470" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="486" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="493" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+    </row>
+    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="530" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+    </row>
+    <row r="537" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="542" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+    </row>
+    <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="577" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+    </row>
+    <row r="584" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="600" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+    </row>
+    <row r="607" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="619" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+    </row>
+    <row r="626" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="634" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+    </row>
+    <row r="640" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="646" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+    </row>
+    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="672" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="market group for natural gas, high pressure"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\elegancy\premise input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79B06F-28F6-0143-A049-1D8D12D5BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8180BA6E-73EE-4578-BC96-61F405B21604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hydrogen!$A$1:$H$678</definedName>
+    <definedName name="MJ_per_kg_H2">Hydrogen!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="104">
   <si>
     <t>technosphere</t>
   </si>
@@ -133,9 +134,6 @@
     <t>hydrogen-smr-natgas</t>
   </si>
   <si>
-    <t>Total energy input to reformer</t>
-  </si>
-  <si>
     <t>ecoinvent 3.6 cutoff</t>
   </si>
   <si>
@@ -307,9 +305,6 @@
     <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
   </si>
   <si>
-    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
-  </si>
-  <si>
     <t>hydrogen production, steam methane reforming</t>
   </si>
   <si>
@@ -332,6 +327,36 @@
   </si>
   <si>
     <t>Original ecoinvent value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D
+This inventory represents the case "ATR NG, HT+LT with CCS MDEA 98 average" from that publication with the following changes: Combustion of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -17.8 MWe to -6.5 MWe. External power requirement is calculated to be 0.73 kWh/kgH2. 
+</t>
+  </si>
+  <si>
+    <t>Excess electricity amounts to 0.63 kWh/kg, which could substitute other electricity production. For simplicity this amount is set to 0.</t>
+  </si>
+  <si>
+    <t>Excess electricity amounts to 1.23 kWh/kg, which could substitute other electricity production. For simplicity this amount is set to 0.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "ATR NG, HT+LT+MDEA 98 average" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -17.8 MWe to -6.5 MWe (see Figure 2 in the publication). External power required is calculated to be 0.73 kWh/kgH2. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas:  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. This inventory represents the case "SMR NG, HT+LT" from that publication with the following changes: (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -0.12 MWe to 11.1 MWe (see Figure 2 in the publication). Excess power is calculated to be 1.23kWh/kgH2. This could replace production of electricity. In this inventory, this excess power is set to 0 for simplicity. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only. 
+Natural gas: density was 0.86 kg/m3 in the publication, but changed to  0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "ATR NG, HT+LT" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -5.6 MWe to 5.6 MWe (see Figure 2 in the publication). Excess power is calculated to be 0.63 kWh/kgH2. This could replace production of electricity. In this inventory, this excess power is set to 0 for simplicity. (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas: density was 0.86 kg/m3 in the publication, but changed to 0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D.
+This inventory represents the case "SMR NG, HT+LT, + CCS (MDEA), 98 (average)" from that publication with the following changes:  (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from  -11.52 MWe to -0.3 MWe (see Figure 2 in the publication). Required external power input is calculated to be 0.035 kWh/kgH2.  (b) The water balance is changed to account for actual water consumption in the process or evaporated water only.
+ Natural gas: density was 0.86 kg/m3 in the publication, but changed to 0.735 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 46.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -573,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -715,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,20 +748,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -744,128 +769,140 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>1.3108706331708271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3.0676551327453981E-8</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>3.0676551327453981E-8</v>
+        <v>4.6014826991180967E-6</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -874,18 +911,18 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
-        <v>4.6014826991180967E-6</v>
+        <v>1.2270911966962279E-5</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -894,18 +931,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
-        <v>1.2270911966962279E-5</v>
+        <v>3.067655132745397E-10</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -914,18 +951,18 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
-        <v>3.067655132745397E-10</v>
+        <v>2.1474168801179165E-5</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -934,38 +971,38 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>8.9222937864716503</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>2.1474168801179165E-5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
-        <v>8.9222937864716503</v>
+        <v>6.4421923531576096E-5</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -974,18 +1011,18 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
-        <v>6.4421923531576096E-5</v>
+        <v>3.0676551327453981E-6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -994,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1014,18 +1051,18 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21">
-        <v>3.0676551327453981E-6</v>
+        <v>9.2032568342168839E-10</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -1034,18 +1071,18 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22">
-        <v>9.2032568342168839E-10</v>
+        <v>6.135601701471486E-5</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1054,18 +1091,18 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
-        <v>6.135601701471486E-5</v>
+        <v>5.4912367481653793E-4</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1074,18 +1111,18 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24">
-        <v>5.4912367481653793E-4</v>
+        <v>3.0676551327453975E-7</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1094,18 +1131,18 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25">
-        <v>3.0676551327453975E-7</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1114,18 +1151,18 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26">
-        <v>6.135601701471486E-6</v>
+        <v>3.6814193080790292E-5</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1134,18 +1171,18 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27">
-        <v>3.6814193080790292E-5</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -1154,18 +1191,18 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
       <c r="B28">
-        <v>6.135601701471486E-6</v>
+        <v>6.1356017014714845E-7</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -1174,18 +1211,18 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29">
-        <v>6.1356017014714845E-7</v>
+        <v>1.6872686102061067E-5</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -1194,18 +1231,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
       <c r="B30">
-        <v>1.6872686102061067E-5</v>
+        <v>6.135601701471486E-6</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -1214,38 +1251,38 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31">
-        <v>6.135601701471486E-6</v>
+        <v>0.38038158908113223</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4">
-        <v>0.38038158908113223</v>
+        <v>0.37129531176681224</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1254,19 +1291,18 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4">
-        <f>B32-B34</f>
-        <v>0.37129660508113221</v>
+        <v>9.0849839999999991E-3</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -1275,74 +1311,76 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
         <v>85</v>
       </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="4">
-        <f>(2.4/1000)*3.78541</f>
-        <v>9.0849839999999991E-3</v>
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="6">
-        <v>2.6180197338995299E-11</v>
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>5.3272799999999989E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1351,15 +1389,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>3.6000000000000001E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1374,15 +1412,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>3.6239999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1391,21 +1429,21 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>2.54628E-9</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1414,21 +1452,21 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>2.796E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1443,15 +1481,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>1.668E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1466,15 +1504,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
       <c r="B42">
-        <v>2.0292014459767036E-4</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1489,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>3.1235999999999997E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -1512,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>4.8000000000000001E-5</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -1535,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>1.1591999999999998E-5</v>
+        <v>4.430822860844585</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -1558,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B46">
-        <v>7.5384135551020997</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -1581,15 +1619,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47">
-        <v>8.8290154606725723E-4</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1604,199 +1642,221 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>3.7140000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4.5588709815562902</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50">
-        <f>(B4*120)/36</f>
-        <v>4.3695687772360907</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53">
-        <v>1.2903504392436329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>1.9949446142967199E-8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2.9924169214450796E-6</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
       <c r="G61" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62">
-        <v>2.803301033677894E-8</v>
+        <v>7.9799679826110004E-6</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -1808,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
@@ -1817,12 +1877,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>4.2049515505168402E-6</v>
+        <v>1.9949446142967197E-10</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -1834,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -1843,12 +1903,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64">
-        <v>1.1213470456299422E-5</v>
+        <v>1.3964991350925282E-5</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
@@ -1860,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
@@ -1869,12 +1929,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>2.8033010336778933E-10</v>
+        <v>3.5739278053752441</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -1886,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
@@ -1895,12 +1955,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
       <c r="B66">
-        <v>1.9623639878920949E-5</v>
+        <v>4.18945950019276E-5</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -1912,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>25</v>
@@ -1921,12 +1981,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B67">
-        <v>2.6104586734695769</v>
+        <v>1.9949446142967199E-6</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -1938,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -1947,12 +2007,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B68">
-        <v>5.8870386993587143E-5</v>
+        <v>1.9949446142967199E-6</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -1964,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -1973,12 +2033,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69">
-        <v>2.8033010336778938E-6</v>
+        <v>5.9850233683142804E-10</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -1990,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -1999,12 +2059,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70">
-        <v>2.8033010336778938E-6</v>
+        <v>3.9900787540175611E-5</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2016,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
@@ -2025,12 +2085,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>8.4101694226215283E-10</v>
+        <v>3.5710380412862236E-4</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -2042,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
@@ -2051,12 +2111,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>5.6068683889436346E-5</v>
+        <v>1.9949446142967197E-7</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -2068,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>25</v>
@@ -2077,12 +2137,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>5.0180313582138397E-4</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -2094,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>25</v>
@@ -2103,12 +2163,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>2.8033010336778935E-7</v>
+        <v>2.3940851574953607E-5</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -2120,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>25</v>
@@ -2129,12 +2189,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>5.6068683889436342E-6</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -2146,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>25</v>
@@ -2155,12 +2215,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>3.3641742976837502E-5</v>
+        <v>3.9900787540175603E-7</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -2172,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
@@ -2181,12 +2241,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>5.6068683889436342E-6</v>
+        <v>1.0972574429480202E-5</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
@@ -2198,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>25</v>
@@ -2207,12 +2267,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78">
-        <v>5.6068683889436334E-7</v>
+        <v>3.9900787540175598E-6</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2224,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>25</v>
@@ -2233,64 +2293,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79">
-        <v>1.5418688328404109E-5</v>
+        <v>0.38038029576681226</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>25</v>
       </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80">
-        <v>5.6068683889436342E-6</v>
+        <v>83</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.36940260676681225</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
-      <c r="D80" t="s">
-        <v>28</v>
-      </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
       </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81">
-        <v>0.38033800779618782</v>
+        <v>83</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -2299,69 +2347,76 @@
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="4">
-        <f>B81-B83</f>
-        <v>0.3693603187961878</v>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>5.2412402057638054</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4">
-        <f>(2.9/1000)*3.78541</f>
-        <v>1.0977689000000001E-2</v>
+        <v>53</v>
+      </c>
+      <c r="B83">
+        <v>5.3483199147628007E-10</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>54</v>
       </c>
       <c r="I83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B84">
-        <v>6.1611670196058146</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
@@ -2370,47 +2425,44 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="6">
-        <v>2.6180197338995299E-11</v>
+        <v>58</v>
+      </c>
+      <c r="B85">
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>55</v>
-      </c>
-      <c r="I85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B86">
-        <v>5.3272799999999989E-4</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
@@ -2419,18 +2471,18 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B87">
-        <v>3.6000000000000001E-5</v>
+        <v>1.7820216699596938E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2442,41 +2494,41 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B88">
-        <v>3.6239999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B89">
-        <v>2.0947967866659771E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
@@ -2488,41 +2540,41 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B90">
-        <v>2.54628E-9</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B91">
-        <v>2.796E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -2534,18 +2586,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <v>1.668E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -2557,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B93">
-        <v>2.0292014459767036E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>1</v>
@@ -2580,18 +2632,18 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>3.1235999999999997E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
@@ -2603,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B95">
-        <v>4.8000000000000001E-5</v>
+        <v>4.430822860844585</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
@@ -2626,18 +2678,18 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>20</v>
-      </c>
       <c r="B96">
-        <v>1.1591999999999998E-5</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
@@ -2649,21 +2701,21 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B97">
-        <v>7.5375498599112571</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
@@ -2672,47 +2724,47 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>8.8290154606725723E-4</v>
+        <v>3.5182635672319829E-2</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B99">
-        <v>3.7140000000000003E-4</v>
+        <v>4.5304971565552314</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>0</v>
@@ -2721,343 +2773,353 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101">
-        <f>(B53*120)/36</f>
-        <v>4.3011681308121101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>8.9868381043588528</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <v>0.38041197561668283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
         <v>21</v>
       </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104">
-        <v>1.3068429847355314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" t="s">
-        <v>5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="str">
-        <f>B103</f>
-        <v>hydrogen production, auto-thermal reforming</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1</v>
+      <c r="F112" t="s">
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113">
-        <v>8.9868381043588528</v>
+        <v>83</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.36943428661668282</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
       </c>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G113" t="s">
         <v>25</v>
       </c>
-      <c r="H113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114">
-        <v>2.9996721816189444E-3</v>
+        <v>83</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
       </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
       <c r="E114" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>25</v>
       </c>
-      <c r="H114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>53</v>
       </c>
       <c r="B115">
-        <v>0.38041197561668283</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" s="4">
-        <f>B115-B117</f>
-        <v>0.37132699161668281</v>
+        <v>55</v>
+      </c>
+      <c r="B116">
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" s="4">
-        <f>(2.4/1000)*3.78541</f>
-        <v>9.0849839999999991E-3</v>
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" s="6">
-        <v>2.6180197338995299E-11</v>
+        <v>60</v>
+      </c>
+      <c r="B118">
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
         <v>4</v>
       </c>
-      <c r="G118" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>55</v>
-      </c>
-      <c r="I118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1</v>
-      </c>
       <c r="G119" t="s">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B120">
-        <v>3.6000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
@@ -3069,18 +3131,18 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B121">
-        <v>3.6239999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -3092,41 +3154,41 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B122">
-        <v>2.54628E-9</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B123">
-        <v>2.796E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -3138,21 +3200,21 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B124">
-        <v>1.668E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
         <v>1</v>
@@ -3161,18 +3223,18 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>2.0292014459767036E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
@@ -3184,45 +3246,45 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B126">
-        <v>3.1235999999999997E-4</v>
+        <v>4.4311768142436039</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
         <v>2</v>
       </c>
-      <c r="E126" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>71</v>
-      </c>
-      <c r="B127">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
       <c r="E127" t="s">
         <v>1</v>
       </c>
@@ -3230,18 +3292,18 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B128">
-        <v>1.1591999999999998E-5</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
@@ -3253,372 +3315,389 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B129">
-        <v>7.5390157563601576</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B130">
-        <v>8.8290154606725723E-4</v>
+        <v>4.588432687243472</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G130" t="s">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131">
-        <v>3.7140000000000003E-4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>33</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" t="s">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
         <v>15</v>
       </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133">
-        <f>(B104*120)/36</f>
-        <v>4.3561432824517716</v>
-      </c>
-      <c r="C133" t="s">
-        <v>33</v>
-      </c>
-      <c r="D133" t="s">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E133" t="s">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>93</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141">
+        <v>0.58838389214647391</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142">
+        <v>2.9996721816189444E-3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143">
+        <v>0.38041305426253447</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
         <v>21</v>
       </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136">
-        <v>1.3068466902465423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.36943536526253445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>84</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1.0977689000000001E-2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146">
+        <v>8.3442634742423714</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
         <v>82</v>
       </c>
-      <c r="B141" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
-      </c>
-      <c r="H143" t="s">
-        <v>5</v>
-      </c>
-      <c r="I143" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="str">
-        <f>B135</f>
-        <v>hydrogen production, auto-thermal reforming, with CCS</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>30</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C145" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>53</v>
       </c>
       <c r="B147">
-        <v>0.38041305426253447</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>54</v>
+      </c>
+      <c r="I147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B148" s="4">
-        <f>B147-B149</f>
-        <v>0.36943536526253445</v>
+        <v>55</v>
+      </c>
+      <c r="B148">
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>21</v>
-      </c>
-      <c r="F148" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>84</v>
-      </c>
-      <c r="B149" s="4">
-        <f>(2.9/1000)*3.78541</f>
-        <v>1.0977689000000001E-2</v>
+        <v>58</v>
+      </c>
+      <c r="B149">
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="I149" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B150">
-        <v>8.3442634742423714</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
         <v>1</v>
@@ -3627,67 +3706,64 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" s="6">
-        <v>2.6180197338995299E-11</v>
+        <v>77</v>
+      </c>
+      <c r="B151">
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152">
+        <v>2.54628E-9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
         <v>4</v>
       </c>
-      <c r="G151" t="s">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
-        <v>55</v>
-      </c>
-      <c r="I151" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1</v>
-      </c>
       <c r="G152" t="s">
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B153">
-        <v>3.6000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -3699,18 +3775,18 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B154">
-        <v>3.6239999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
@@ -3722,18 +3798,18 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B155">
-        <v>2.8370495812424056E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
@@ -3745,44 +3821,44 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B156">
-        <v>2.54628E-9</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" t="s">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G156" t="s">
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B157">
-        <v>2.796E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
         <v>1</v>
@@ -3791,18 +3867,18 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B158">
-        <v>1.668E-5</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
@@ -3814,21 +3890,21 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B159">
-        <v>2.0292014459767036E-4</v>
+        <v>4.4311893787021255</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E159" t="s">
         <v>1</v>
@@ -3837,18 +3913,18 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B160">
-        <v>3.1235999999999997E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
@@ -3860,886 +3936,347 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B161">
-        <v>4.8000000000000001E-5</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162">
+        <v>0.72876476127298562</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
         <v>15</v>
       </c>
-      <c r="E161" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162">
-        <v>1.1591999999999998E-5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
       <c r="E162" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B163">
-        <v>7.5390371329954711</v>
+        <v>4.588445697595934</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E163" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>73</v>
-      </c>
-      <c r="B164">
-        <v>8.8290154606725723E-4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" t="s">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>75</v>
-      </c>
-      <c r="B165">
-        <v>3.7140000000000003E-4</v>
-      </c>
-      <c r="C165" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1</v>
-      </c>
-      <c r="G165" t="s">
-        <v>0</v>
-      </c>
-      <c r="H165" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s">
-        <v>0</v>
-      </c>
-      <c r="H166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>96</v>
-      </c>
-      <c r="B167">
-        <f>(B136*120)/36</f>
-        <v>4.3561556341551411</v>
-      </c>
-      <c r="C167" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" t="s">
-        <v>97</v>
-      </c>
-      <c r="E167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2"/>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
-      <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="210" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2"/>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2"/>
-      <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="244" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="2"/>
-      <c r="G246" s="2"/>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="2"/>
-      <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="2"/>
-      <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="2"/>
-      <c r="G302" s="2"/>
-    </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="2"/>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="2"/>
-      <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="2"/>
-      <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
-    </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
-    </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="1"/>
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="474" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
-    </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="497" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="1"/>
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="517" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="1"/>
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="581" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="1"/>
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="588" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="604" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="1"/>
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="611" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="1"/>
-      <c r="B623" s="1"/>
-    </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="630" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="638" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="1"/>
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="644" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="1"/>
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="658" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="659" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="660" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="661" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="662" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="663" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="664" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="665" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="666" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="667" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="668" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="669" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="670" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="671" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="672" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="676" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
-    </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="682" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="1"/>
+    <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="359" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+    </row>
+    <row r="366" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+    </row>
+    <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+    </row>
+    <row r="443" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+    </row>
+    <row r="455" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="463" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+    </row>
+    <row r="470" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="486" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="493" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+    </row>
+    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="530" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+    </row>
+    <row r="537" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="542" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+    </row>
+    <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="577" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+    </row>
+    <row r="584" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="600" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+    </row>
+    <row r="607" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="619" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+    </row>
+    <row r="626" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="634" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+    </row>
+    <row r="640" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="646" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+    </row>
+    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="672" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H682" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="chemical factory construction, organics"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-natgas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\elegancy\premise input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8180BA6E-73EE-4578-BC96-61F405B21604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A28196-5628-4A1C-B4A1-ABFD6DDDAED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydrogen" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1804,7 +1806,7 @@
         <v>33</v>
       </c>
       <c r="B60">
-        <v>1.9949446142967199E-8</v>
+        <v>2.803301033677894E-8</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
@@ -1830,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="B61">
-        <v>2.9924169214450796E-6</v>
+        <v>4.2049515505168402E-6</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -1856,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="B62">
-        <v>7.9799679826110004E-6</v>
+        <v>1.1213470456299422E-5</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -1882,7 +1884,7 @@
         <v>37</v>
       </c>
       <c r="B63">
-        <v>1.9949446142967197E-10</v>
+        <v>2.8033010336778933E-10</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -1908,7 +1910,7 @@
         <v>38</v>
       </c>
       <c r="B64">
-        <v>1.3964991350925282E-5</v>
+        <v>1.9623639878920949E-5</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
@@ -1934,7 +1936,7 @@
         <v>27</v>
       </c>
       <c r="B65">
-        <v>3.5739278053752441</v>
+        <v>2.6104586734695769</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -1960,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="B66">
-        <v>4.18945950019276E-5</v>
+        <v>5.8870386993587143E-5</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -1986,7 +1988,7 @@
         <v>40</v>
       </c>
       <c r="B67">
-        <v>1.9949446142967199E-6</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -2012,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B68">
-        <v>1.9949446142967199E-6</v>
+        <v>2.8033010336778938E-6</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -2038,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="B69">
-        <v>5.9850233683142804E-10</v>
+        <v>8.4101694226215283E-10</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -2064,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="B70">
-        <v>3.9900787540175611E-5</v>
+        <v>5.6068683889436346E-5</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2090,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="B71">
-        <v>3.5710380412862236E-4</v>
+        <v>5.0180313582138397E-4</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -2116,7 +2118,7 @@
         <v>45</v>
       </c>
       <c r="B72">
-        <v>1.9949446142967197E-7</v>
+        <v>2.8033010336778935E-7</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -2142,7 +2144,7 @@
         <v>46</v>
       </c>
       <c r="B73">
-        <v>3.9900787540175598E-6</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -2168,7 +2170,7 @@
         <v>47</v>
       </c>
       <c r="B74">
-        <v>2.3940851574953607E-5</v>
+        <v>3.3641742976837502E-5</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -2194,7 +2196,7 @@
         <v>48</v>
       </c>
       <c r="B75">
-        <v>3.9900787540175598E-6</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -2220,7 +2222,7 @@
         <v>49</v>
       </c>
       <c r="B76">
-        <v>3.9900787540175603E-7</v>
+        <v>5.6068683889436334E-7</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -2246,7 +2248,7 @@
         <v>50</v>
       </c>
       <c r="B77">
-        <v>1.0972574429480202E-5</v>
+        <v>1.5418688328404109E-5</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
@@ -2272,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="B78">
-        <v>3.9900787540175598E-6</v>
+        <v>5.6068683889436342E-6</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2361,7 +2363,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>5.2412402057638054</v>
+        <v>6.1611670196058146</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
@@ -2479,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="B87">
-        <v>1.7820216699596938E-4</v>
+        <v>2.0947967866659771E-4</v>
       </c>
       <c r="C87" t="s">
         <v>32</v>
@@ -2663,7 +2665,7 @@
         <v>24</v>
       </c>
       <c r="B95">
-        <v>4.430822860844585</v>
+        <v>4.4303152102137977</v>
       </c>
       <c r="C95" t="s">
         <v>32</v>
